--- a/Input/MATSimInputFigure4p3r.xlsx
+++ b/Input/MATSimInputFigure4p3r.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20352"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjsja\Projects\SwissTraffic\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjaarda\Desktop\SwissTraffic\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C5180C3-F09A-41F6-B6D7-D03540887081}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A8DEA1-85DE-41E2-B67B-B02DD4754933}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="813" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20715" windowHeight="13275" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BaseData" sheetId="10" r:id="rId1"/>
@@ -21,20 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
   <si>
     <t>x</t>
   </si>
@@ -84,9 +76,6 @@
     <t>RunPlat</t>
   </si>
   <si>
-    <t>Mp</t>
-  </si>
-  <si>
     <t>Save</t>
   </si>
   <si>
@@ -124,6 +113,33 @@
   </si>
   <si>
     <t>Mattstetten2003</t>
+  </si>
+  <si>
+    <t>80,20,0</t>
+  </si>
+  <si>
+    <t>1,1,1</t>
+  </si>
+  <si>
+    <t>Mp40</t>
+  </si>
+  <si>
+    <t>Mp20</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>L3</t>
+  </si>
+  <si>
+    <t>L4</t>
+  </si>
+  <si>
+    <t>Mp60</t>
+  </si>
+  <si>
+    <t>Mp80</t>
   </si>
 </sst>
 </file>
@@ -168,7 +184,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -190,11 +206,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -216,73 +228,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Line 51">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62F125AB-1217-4C7C-A3FD-6669E78AEA3A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="942975" y="2609850"/>
-          <a:ext cx="0" cy="333375"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-            <a:srgbClr val="000000"/>
-          </a:outerShdw>
-        </a:effectLst>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:noFill/>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:round/>
-              <a:headEnd/>
-              <a:tailEnd type="triangle" w="med" len="med"/>
-            </a14:hiddenLine>
-          </a:ext>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
@@ -488,73 +433,6 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Line 51">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD800B72-F08B-4733-96EE-B30008F38940}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7864079" y="188119"/>
-          <a:ext cx="0" cy="461962"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-            <a:srgbClr val="000000"/>
-          </a:outerShdw>
-        </a:effectLst>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:noFill/>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:round/>
-              <a:headEnd/>
-              <a:tailEnd type="triangle" w="med" len="med"/>
-            </a14:hiddenLine>
-          </a:ext>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
@@ -570,207 +448,6 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1027CFB6-21D4-48EF-8195-AB0CDC9EE574}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7864079" y="188119"/>
-          <a:ext cx="0" cy="461962"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-            <a:srgbClr val="000000"/>
-          </a:outerShdw>
-        </a:effectLst>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:noFill/>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:round/>
-              <a:headEnd/>
-              <a:tailEnd type="triangle" w="med" len="med"/>
-            </a14:hiddenLine>
-          </a:ext>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Line 51">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBC01750-2F54-4DB3-8AB3-2128EF3106AB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7864079" y="188119"/>
-          <a:ext cx="0" cy="461962"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-            <a:srgbClr val="000000"/>
-          </a:outerShdw>
-        </a:effectLst>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:noFill/>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:round/>
-              <a:headEnd/>
-              <a:tailEnd type="triangle" w="med" len="med"/>
-            </a14:hiddenLine>
-          </a:ext>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="Line 51">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8137EA0C-3A30-4784-9343-69C6BC55A5C6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7864079" y="188119"/>
-          <a:ext cx="0" cy="461962"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-            <a:srgbClr val="000000"/>
-          </a:outerShdw>
-        </a:effectLst>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:noFill/>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:round/>
-              <a:headEnd/>
-              <a:tailEnd type="triangle" w="med" len="med"/>
-            </a14:hiddenLine>
-          </a:ext>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="Line 51">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9AFF8B1-839E-4E3F-85FA-84E8FC9786F2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -849,6 +526,542 @@
         <a:xfrm>
           <a:off x="7864079" y="188119"/>
           <a:ext cx="0" cy="461962"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000"/>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:round/>
+              <a:headEnd/>
+              <a:tailEnd type="triangle" w="med" len="med"/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
+            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Line 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{848360DE-BF02-4AFE-A609-1882DBF619B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6727031" y="581025"/>
+          <a:ext cx="0" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000"/>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:round/>
+              <a:headEnd/>
+              <a:tailEnd type="triangle" w="med" len="med"/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
+            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Line 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{474A96ED-9E65-4BDC-ACDB-CCF928F25C22}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6727031" y="962025"/>
+          <a:ext cx="0" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000"/>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:round/>
+              <a:headEnd/>
+              <a:tailEnd type="triangle" w="med" len="med"/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
+            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Line 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A0DB62E-04A1-4BDC-8C08-AAD80901E5A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6727031" y="1343025"/>
+          <a:ext cx="0" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000"/>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:round/>
+              <a:headEnd/>
+              <a:tailEnd type="triangle" w="med" len="med"/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
+            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Line 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C26229A-F7ED-4C92-9100-B049CF56C584}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6727031" y="2105025"/>
+          <a:ext cx="0" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000"/>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:round/>
+              <a:headEnd/>
+              <a:tailEnd type="triangle" w="med" len="med"/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
+            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Line 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F47831BF-E5AD-4D43-97C0-2651EC4ABCCA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6727031" y="2486025"/>
+          <a:ext cx="0" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000"/>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:round/>
+              <a:headEnd/>
+              <a:tailEnd type="triangle" w="med" len="med"/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
+            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Line 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE7F280C-E9B9-4BF3-87ED-F464868432D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6727031" y="2867025"/>
+          <a:ext cx="0" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000"/>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:round/>
+              <a:headEnd/>
+              <a:tailEnd type="triangle" w="med" len="med"/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
+            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Line 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0E38534-3FBE-4896-83BE-B4A2869B9DC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6727031" y="3248025"/>
+          <a:ext cx="0" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000"/>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:round/>
+              <a:headEnd/>
+              <a:tailEnd type="triangle" w="med" len="med"/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
+            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Line 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8BD6A13-0A6C-4412-80A0-DFE50926DACE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6727031" y="3629025"/>
+          <a:ext cx="0" cy="485775"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1189,21 +1402,23 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="11.1328125" customWidth="1"/>
-    <col min="6" max="8" width="11.1328125" style="3" customWidth="1"/>
-    <col min="9" max="15" width="11.1328125" customWidth="1"/>
-    <col min="16" max="16" width="15.73046875" customWidth="1"/>
+    <col min="1" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="8" width="11.140625" style="3" customWidth="1"/>
+    <col min="9" max="15" width="11.140625" customWidth="1"/>
+    <col min="16" max="16" width="23.42578125" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" customWidth="1"/>
+    <col min="19" max="19" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1220,7 +1435,7 @@
         <v>15</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>13</v>
@@ -1229,34 +1444,40 @@
         <v>14</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="N1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="Q1" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
+        <v>25</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>2000000</v>
       </c>
@@ -1273,13 +1494,13 @@
         <v>0</v>
       </c>
       <c r="F2" s="5">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G2" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H2" s="5">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="I2" s="5">
         <v>1</v>
@@ -1303,13 +1524,19 @@
         <v>1</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
+        <v>24</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2000000</v>
       </c>
@@ -1326,13 +1553,13 @@
         <v>0</v>
       </c>
       <c r="F3" s="5">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G3" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H3" s="5">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="I3" s="5">
         <v>1</v>
@@ -1356,13 +1583,19 @@
         <v>1</v>
       </c>
       <c r="P3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="Q3" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="S3" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>2000000</v>
       </c>
@@ -1379,13 +1612,13 @@
         <v>0</v>
       </c>
       <c r="F4" s="5">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G4" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H4" s="5">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="I4" s="5">
         <v>1</v>
@@ -1409,13 +1642,19 @@
         <v>1</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+        <v>24</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
     </row>
   </sheetData>
@@ -1430,23 +1669,21 @@
   </sheetPr>
   <dimension ref="A1:K584"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
-    </sheetView>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.1328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.73046875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.86328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.59765625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9.1328125" style="3"/>
-    <col min="6" max="6" width="11.3984375" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="3"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
     <col min="7" max="7" width="9" customWidth="1"/>
-    <col min="8" max="16384" width="9.1328125" style="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1471,102 +1708,165 @@
       <c r="H1" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A2" s="3">
+      <c r="I1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="5">
         <v>100</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="5">
         <v>1</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="5">
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="3">
+      <c r="E2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="5">
         <v>0</v>
       </c>
       <c r="G2" s="3">
         <v>0</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="5">
         <v>0</v>
       </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="10"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A3" s="3">
+      <c r="I2" s="5">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0</v>
+      </c>
+      <c r="K2" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="5">
         <v>0</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="5">
         <v>1</v>
       </c>
-      <c r="F3" s="3"/>
+      <c r="D3" s="5">
+        <v>2</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
       <c r="G3" s="3">
         <v>2</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="5">
         <v>1</v>
       </c>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="10"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="I3" s="5">
+        <v>1</v>
+      </c>
+      <c r="J3" s="5">
+        <v>1</v>
+      </c>
+      <c r="K3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5">
+        <v>3</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
       <c r="G4" s="3">
         <v>4</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="5">
         <v>2</v>
       </c>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="10"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="I4" s="5">
+        <v>2</v>
+      </c>
+      <c r="J4" s="5">
+        <v>2</v>
+      </c>
+      <c r="K4" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5">
+        <v>4</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
       <c r="G5" s="3">
         <v>6</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="5">
         <v>3</v>
       </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="10"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="I5" s="5">
+        <v>3</v>
+      </c>
+      <c r="J5" s="5">
+        <v>3</v>
+      </c>
+      <c r="K5" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="G6" s="3">
         <v>8</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="5">
         <v>4</v>
       </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="10"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="I6" s="5">
+        <v>4</v>
+      </c>
+      <c r="J6" s="5">
+        <v>4</v>
+      </c>
+      <c r="K6" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1574,14 +1874,20 @@
       <c r="G7" s="3">
         <v>10</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="5">
         <v>5</v>
       </c>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="10"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="I7" s="5">
+        <v>5</v>
+      </c>
+      <c r="J7" s="5">
+        <v>5</v>
+      </c>
+      <c r="K7" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1589,14 +1895,20 @@
       <c r="G8" s="3">
         <v>12</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="5">
+        <v>4</v>
+      </c>
+      <c r="I8" s="5">
         <v>6</v>
       </c>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="10"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="J8" s="5">
+        <v>6</v>
+      </c>
+      <c r="K8" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1604,14 +1916,20 @@
       <c r="G9" s="3">
         <v>14</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="5">
+        <v>3</v>
+      </c>
+      <c r="I9" s="5">
         <v>7</v>
       </c>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="10"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="J9" s="5">
+        <v>7</v>
+      </c>
+      <c r="K9" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1619,14 +1937,20 @@
       <c r="G10" s="3">
         <v>16</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="5">
+        <v>2</v>
+      </c>
+      <c r="I10" s="5">
         <v>8</v>
       </c>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="10"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="J10" s="5">
+        <v>8</v>
+      </c>
+      <c r="K10" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1634,14 +1958,20 @@
       <c r="G11" s="3">
         <v>18</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="5">
+        <v>1</v>
+      </c>
+      <c r="I11" s="5">
         <v>9</v>
       </c>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="10"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="J11" s="5">
+        <v>9</v>
+      </c>
+      <c r="K11" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1649,14 +1979,20 @@
       <c r="G12" s="3">
         <v>20</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="5">
+        <v>0</v>
+      </c>
+      <c r="I12" s="5">
         <v>10</v>
       </c>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="10"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="J12" s="5">
+        <v>10</v>
+      </c>
+      <c r="K12" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1664,14 +2000,18 @@
       <c r="G13" s="3">
         <v>22</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="5"/>
+      <c r="I13" s="5">
         <v>9</v>
       </c>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="10"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="J13" s="5">
+        <v>11</v>
+      </c>
+      <c r="K13" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1679,14 +2019,18 @@
       <c r="G14" s="3">
         <v>24</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="5"/>
+      <c r="I14" s="5">
         <v>8</v>
       </c>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="10"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="J14" s="5">
+        <v>12</v>
+      </c>
+      <c r="K14" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1694,14 +2038,18 @@
       <c r="G15" s="3">
         <v>26</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="5"/>
+      <c r="I15" s="5">
         <v>7</v>
       </c>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="10"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="J15" s="5">
+        <v>13</v>
+      </c>
+      <c r="K15" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1709,14 +2057,18 @@
       <c r="G16" s="3">
         <v>28</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="5"/>
+      <c r="I16" s="5">
         <v>6</v>
       </c>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="10"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="J16" s="5">
+        <v>14</v>
+      </c>
+      <c r="K16" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1724,14 +2076,18 @@
       <c r="G17" s="3">
         <v>30</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="5"/>
+      <c r="I17" s="5">
         <v>5</v>
       </c>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="10"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="J17" s="5">
+        <v>15</v>
+      </c>
+      <c r="K17" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1739,14 +2095,18 @@
       <c r="G18" s="3">
         <v>32</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="5"/>
+      <c r="I18" s="5">
         <v>4</v>
       </c>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="10"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="J18" s="5">
+        <v>14</v>
+      </c>
+      <c r="K18" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1754,14 +2114,18 @@
       <c r="G19" s="3">
         <v>34</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="5"/>
+      <c r="I19" s="5">
         <v>3</v>
       </c>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="10"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="J19" s="5">
+        <v>13</v>
+      </c>
+      <c r="K19" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1769,14 +2133,18 @@
       <c r="G20" s="3">
         <v>36</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="5"/>
+      <c r="I20" s="5">
         <v>2</v>
       </c>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="10"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="J20" s="5">
+        <v>12</v>
+      </c>
+      <c r="K20" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1784,14 +2152,18 @@
       <c r="G21" s="3">
         <v>38</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="5"/>
+      <c r="I21" s="5">
         <v>1</v>
       </c>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="10"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="J21" s="5">
+        <v>11</v>
+      </c>
+      <c r="K21" s="5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1799,2874 +2171,3019 @@
       <c r="G22" s="3">
         <v>40</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="5"/>
+      <c r="I22" s="5">
         <v>0</v>
       </c>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="10"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="J22" s="5">
+        <v>10</v>
+      </c>
+      <c r="K22" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
+      <c r="G23" s="3">
+        <v>42</v>
+      </c>
+      <c r="H23" s="5"/>
       <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="J23" s="5">
+        <v>9</v>
+      </c>
+      <c r="K23" s="5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
+      <c r="G24" s="3">
+        <v>44</v>
+      </c>
+      <c r="H24" s="5"/>
       <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="J24" s="5">
+        <v>8</v>
+      </c>
+      <c r="K24" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
+      <c r="G25" s="3">
+        <v>46</v>
+      </c>
+      <c r="H25" s="5"/>
       <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="J25" s="5">
+        <v>7</v>
+      </c>
+      <c r="K25" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
+      <c r="G26" s="3">
+        <v>48</v>
+      </c>
+      <c r="H26" s="5"/>
       <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="J26" s="5">
+        <v>6</v>
+      </c>
+      <c r="K26" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
+      <c r="G27" s="3">
+        <v>50</v>
+      </c>
+      <c r="H27" s="5"/>
       <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="J27" s="5">
+        <v>5</v>
+      </c>
+      <c r="K27" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
+      <c r="G28" s="3">
+        <v>52</v>
+      </c>
+      <c r="H28" s="5"/>
       <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="J28" s="5">
+        <v>4</v>
+      </c>
+      <c r="K28" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
+      <c r="G29" s="3">
+        <v>54</v>
+      </c>
+      <c r="H29" s="5"/>
       <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="J29" s="5">
+        <v>3</v>
+      </c>
+      <c r="K29" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
+      <c r="G30" s="3">
+        <v>56</v>
+      </c>
+      <c r="H30" s="5"/>
       <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="J30" s="5">
+        <v>2</v>
+      </c>
+      <c r="K30" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
+      <c r="G31" s="3">
+        <v>58</v>
+      </c>
+      <c r="H31" s="5"/>
       <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="J31" s="5">
+        <v>1</v>
+      </c>
+      <c r="K31" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
+      <c r="G32" s="3">
+        <v>60</v>
+      </c>
+      <c r="H32" s="5"/>
       <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-    </row>
-    <row r="33" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J32" s="5">
+        <v>0</v>
+      </c>
+      <c r="K32" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F33" s="3"/>
-      <c r="G33" s="7"/>
+      <c r="G33" s="3">
+        <v>62</v>
+      </c>
       <c r="H33" s="7"/>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
-    </row>
-    <row r="34" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="K33" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F34" s="3"/>
-      <c r="G34" s="7"/>
+      <c r="G34" s="3">
+        <v>64</v>
+      </c>
       <c r="H34" s="7"/>
-    </row>
-    <row r="35" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F35" s="3"/>
-      <c r="G35" s="7"/>
+      <c r="G35" s="3">
+        <v>66</v>
+      </c>
       <c r="H35" s="7"/>
-    </row>
-    <row r="36" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F36" s="3"/>
-      <c r="G36" s="7"/>
+      <c r="G36" s="3">
+        <v>68</v>
+      </c>
       <c r="H36" s="7"/>
-    </row>
-    <row r="37" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F37" s="3"/>
-      <c r="G37" s="7"/>
+      <c r="G37" s="3">
+        <v>70</v>
+      </c>
       <c r="H37" s="7"/>
-    </row>
-    <row r="38" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F38" s="3"/>
-      <c r="G38" s="7"/>
+      <c r="G38" s="3">
+        <v>72</v>
+      </c>
       <c r="H38" s="7"/>
-    </row>
-    <row r="39" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F39" s="3"/>
-      <c r="G39" s="7"/>
+      <c r="G39" s="3">
+        <v>74</v>
+      </c>
       <c r="H39" s="7"/>
-    </row>
-    <row r="40" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F40" s="3"/>
-      <c r="G40" s="7"/>
+      <c r="G40" s="3">
+        <v>76</v>
+      </c>
       <c r="H40" s="7"/>
-    </row>
-    <row r="41" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F41" s="3"/>
-      <c r="G41" s="7"/>
+      <c r="G41" s="3">
+        <v>78</v>
+      </c>
       <c r="H41" s="7"/>
-    </row>
-    <row r="42" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F42" s="3"/>
-      <c r="G42" s="7"/>
+      <c r="G42" s="3">
+        <v>80</v>
+      </c>
       <c r="H42" s="7"/>
-    </row>
-    <row r="43" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F43" s="3"/>
       <c r="G43" s="6"/>
       <c r="H43" s="7"/>
     </row>
-    <row r="44" spans="6:10" x14ac:dyDescent="0.45">
+    <row r="44" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F44" s="3"/>
       <c r="G44" s="6"/>
       <c r="H44" s="7"/>
     </row>
-    <row r="45" spans="6:10" x14ac:dyDescent="0.45">
+    <row r="45" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F45" s="3"/>
       <c r="G45" s="6"/>
       <c r="H45" s="7"/>
     </row>
-    <row r="46" spans="6:10" x14ac:dyDescent="0.45">
+    <row r="46" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F46" s="3"/>
       <c r="G46" s="6"/>
       <c r="H46" s="7"/>
     </row>
-    <row r="47" spans="6:10" x14ac:dyDescent="0.45">
+    <row r="47" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F47" s="3"/>
       <c r="G47" s="6"/>
       <c r="H47" s="7"/>
     </row>
-    <row r="48" spans="6:10" x14ac:dyDescent="0.45">
+    <row r="48" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F48" s="3"/>
       <c r="G48" s="6"/>
       <c r="H48" s="7"/>
     </row>
-    <row r="49" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="49" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F49" s="3"/>
       <c r="G49" s="6"/>
       <c r="H49" s="7"/>
     </row>
-    <row r="50" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="50" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F50" s="3"/>
       <c r="G50" s="6"/>
       <c r="H50" s="7"/>
     </row>
-    <row r="51" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="51" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F51" s="3"/>
       <c r="G51" s="6"/>
       <c r="H51" s="7"/>
     </row>
-    <row r="52" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="52" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F52" s="3"/>
       <c r="G52" s="6"/>
       <c r="H52" s="7"/>
     </row>
-    <row r="53" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="53" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F53" s="3"/>
       <c r="G53" s="6"/>
       <c r="H53" s="7"/>
     </row>
-    <row r="54" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="54" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F54" s="3"/>
       <c r="G54" s="8"/>
       <c r="H54" s="7"/>
     </row>
-    <row r="55" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="55" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F55" s="3"/>
       <c r="G55" s="8"/>
       <c r="H55" s="7"/>
     </row>
-    <row r="56" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="56" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F56" s="3"/>
       <c r="G56" s="8"/>
       <c r="H56" s="7"/>
     </row>
-    <row r="57" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="57" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F57" s="3"/>
       <c r="G57" s="8"/>
       <c r="H57" s="7"/>
     </row>
-    <row r="58" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="58" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F58" s="3"/>
       <c r="G58" s="8"/>
       <c r="H58" s="7"/>
     </row>
-    <row r="59" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="59" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F59" s="3"/>
       <c r="G59" s="8"/>
       <c r="H59" s="7"/>
     </row>
-    <row r="60" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="60" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F60" s="3"/>
       <c r="G60" s="8"/>
       <c r="H60" s="7"/>
     </row>
-    <row r="61" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="61" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F61" s="3"/>
       <c r="G61" s="8"/>
       <c r="H61" s="7"/>
     </row>
-    <row r="62" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="62" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F62" s="3"/>
       <c r="G62" s="8"/>
       <c r="H62" s="7"/>
     </row>
-    <row r="63" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="63" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F63" s="3"/>
       <c r="G63" s="8"/>
       <c r="H63" s="7"/>
     </row>
-    <row r="64" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="64" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F64" s="3"/>
       <c r="G64" s="8"/>
       <c r="H64" s="7"/>
     </row>
-    <row r="65" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="65" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F65" s="3"/>
       <c r="G65" s="8"/>
       <c r="H65" s="7"/>
     </row>
-    <row r="66" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="66" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F66" s="3"/>
       <c r="G66" s="8"/>
       <c r="H66" s="7"/>
     </row>
-    <row r="67" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="67" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F67" s="3"/>
       <c r="G67" s="8"/>
       <c r="H67" s="7"/>
     </row>
-    <row r="68" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="68" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F68" s="3"/>
       <c r="G68" s="8"/>
       <c r="H68" s="7"/>
     </row>
-    <row r="69" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="69" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F69" s="3"/>
       <c r="G69" s="8"/>
       <c r="H69" s="7"/>
     </row>
-    <row r="70" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="70" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F70" s="3"/>
       <c r="G70" s="8"/>
       <c r="H70" s="7"/>
     </row>
-    <row r="71" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="71" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F71" s="3"/>
       <c r="G71" s="8"/>
       <c r="H71" s="7"/>
     </row>
-    <row r="72" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="72" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F72" s="3"/>
       <c r="G72" s="8"/>
       <c r="H72" s="7"/>
     </row>
-    <row r="73" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="73" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F73" s="3"/>
       <c r="G73" s="8"/>
       <c r="H73" s="7"/>
     </row>
-    <row r="74" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="74" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F74" s="3"/>
       <c r="G74" s="8"/>
       <c r="H74" s="7"/>
     </row>
-    <row r="75" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="75" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F75" s="3"/>
       <c r="G75" s="8"/>
       <c r="H75" s="7"/>
     </row>
-    <row r="76" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="76" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F76" s="3"/>
       <c r="G76" s="8"/>
       <c r="H76" s="7"/>
     </row>
-    <row r="77" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="77" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F77" s="3"/>
       <c r="G77" s="8"/>
       <c r="H77" s="7"/>
     </row>
-    <row r="78" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="78" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F78" s="3"/>
       <c r="G78" s="8"/>
       <c r="H78" s="7"/>
     </row>
-    <row r="79" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="79" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F79" s="3"/>
       <c r="G79" s="8"/>
       <c r="H79" s="7"/>
     </row>
-    <row r="80" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="80" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F80" s="3"/>
       <c r="G80" s="8"/>
       <c r="H80" s="7"/>
     </row>
-    <row r="81" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="81" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F81" s="3"/>
       <c r="G81" s="8"/>
       <c r="H81" s="7"/>
     </row>
-    <row r="82" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="82" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F82" s="3"/>
       <c r="G82" s="8"/>
       <c r="H82" s="7"/>
     </row>
-    <row r="83" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="83" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F83" s="3"/>
       <c r="G83" s="8"/>
       <c r="H83" s="7"/>
     </row>
-    <row r="84" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="84" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F84" s="3"/>
       <c r="G84" s="8"/>
       <c r="H84" s="7"/>
     </row>
-    <row r="85" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="85" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F85" s="3"/>
       <c r="G85" s="8"/>
       <c r="H85" s="7"/>
     </row>
-    <row r="86" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="86" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F86" s="3"/>
       <c r="G86" s="8"/>
       <c r="H86" s="7"/>
     </row>
-    <row r="87" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="87" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F87" s="3"/>
       <c r="G87" s="8"/>
       <c r="H87" s="7"/>
     </row>
-    <row r="88" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="88" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F88" s="3"/>
       <c r="G88" s="8"/>
       <c r="H88" s="7"/>
     </row>
-    <row r="89" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="89" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F89" s="3"/>
       <c r="G89" s="8"/>
       <c r="H89" s="7"/>
     </row>
-    <row r="90" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="90" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F90" s="3"/>
       <c r="G90" s="8"/>
       <c r="H90" s="7"/>
     </row>
-    <row r="91" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="91" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F91" s="3"/>
       <c r="G91" s="8"/>
       <c r="H91" s="7"/>
     </row>
-    <row r="92" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="92" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F92" s="3"/>
       <c r="G92" s="8"/>
       <c r="H92" s="7"/>
     </row>
-    <row r="93" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="93" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F93" s="3"/>
       <c r="G93" s="8"/>
       <c r="H93" s="7"/>
     </row>
-    <row r="94" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="94" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F94" s="3"/>
       <c r="G94" s="8"/>
       <c r="H94" s="7"/>
     </row>
-    <row r="95" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="95" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F95" s="3"/>
       <c r="G95" s="8"/>
       <c r="H95" s="7"/>
     </row>
-    <row r="96" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="96" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F96" s="3"/>
       <c r="G96" s="8"/>
       <c r="H96" s="7"/>
     </row>
-    <row r="97" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="97" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F97" s="3"/>
       <c r="G97" s="8"/>
       <c r="H97" s="7"/>
     </row>
-    <row r="98" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="98" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F98" s="3"/>
       <c r="G98" s="8"/>
       <c r="H98" s="7"/>
     </row>
-    <row r="99" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="99" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F99" s="3"/>
       <c r="G99" s="8"/>
       <c r="H99" s="7"/>
     </row>
-    <row r="100" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="100" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F100" s="3"/>
       <c r="G100" s="8"/>
       <c r="H100" s="7"/>
     </row>
-    <row r="101" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="101" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F101" s="3"/>
       <c r="G101" s="8"/>
       <c r="H101" s="7"/>
     </row>
-    <row r="102" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="102" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F102" s="3"/>
       <c r="G102" s="8"/>
       <c r="H102" s="7"/>
     </row>
-    <row r="103" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="103" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F103" s="3"/>
       <c r="G103" s="8"/>
       <c r="H103" s="7"/>
     </row>
-    <row r="104" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="104" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F104" s="3"/>
       <c r="G104" s="8"/>
       <c r="H104" s="7"/>
     </row>
-    <row r="105" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="105" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F105" s="3"/>
       <c r="G105" s="8"/>
       <c r="H105" s="7"/>
     </row>
-    <row r="106" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="106" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F106" s="3"/>
       <c r="G106" s="8"/>
       <c r="H106" s="7"/>
     </row>
-    <row r="107" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="107" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F107" s="3"/>
       <c r="G107" s="8"/>
       <c r="H107" s="7"/>
     </row>
-    <row r="108" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="108" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F108" s="3"/>
       <c r="G108" s="8"/>
       <c r="H108" s="7"/>
     </row>
-    <row r="109" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="109" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F109" s="3"/>
       <c r="G109" s="8"/>
       <c r="H109" s="7"/>
     </row>
-    <row r="110" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="110" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F110" s="3"/>
       <c r="G110" s="8"/>
       <c r="H110" s="7"/>
     </row>
-    <row r="111" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="111" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F111" s="3"/>
       <c r="G111" s="8"/>
       <c r="H111" s="7"/>
     </row>
-    <row r="112" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="112" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F112" s="3"/>
       <c r="G112" s="8"/>
       <c r="H112" s="7"/>
     </row>
-    <row r="113" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="113" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F113" s="3"/>
       <c r="G113" s="8"/>
       <c r="H113" s="7"/>
     </row>
-    <row r="114" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="114" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F114" s="3"/>
       <c r="G114" s="8"/>
       <c r="H114" s="7"/>
     </row>
-    <row r="115" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="115" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F115" s="3"/>
       <c r="G115" s="8"/>
       <c r="H115" s="7"/>
     </row>
-    <row r="116" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="116" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F116" s="3"/>
       <c r="G116" s="8"/>
       <c r="H116" s="7"/>
     </row>
-    <row r="117" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="117" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F117" s="3"/>
       <c r="G117" s="8"/>
       <c r="H117" s="7"/>
     </row>
-    <row r="118" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="118" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F118" s="3"/>
       <c r="G118" s="8"/>
       <c r="H118" s="7"/>
     </row>
-    <row r="119" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="119" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F119" s="3"/>
       <c r="G119" s="8"/>
       <c r="H119" s="7"/>
     </row>
-    <row r="120" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="120" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F120" s="3"/>
       <c r="G120" s="8"/>
       <c r="H120" s="7"/>
     </row>
-    <row r="121" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="121" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F121" s="3"/>
       <c r="G121" s="8"/>
       <c r="H121" s="7"/>
     </row>
-    <row r="122" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="122" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F122" s="3"/>
       <c r="G122" s="8"/>
       <c r="H122" s="7"/>
     </row>
-    <row r="123" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="123" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F123" s="3"/>
       <c r="G123" s="8"/>
       <c r="H123" s="7"/>
     </row>
-    <row r="124" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="124" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F124" s="3"/>
       <c r="G124" s="8"/>
       <c r="H124" s="7"/>
     </row>
-    <row r="125" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="125" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F125" s="3"/>
       <c r="G125" s="8"/>
       <c r="H125" s="7"/>
     </row>
-    <row r="126" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="126" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F126" s="3"/>
       <c r="G126" s="8"/>
       <c r="H126" s="7"/>
     </row>
-    <row r="127" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="127" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F127" s="3"/>
       <c r="G127" s="8"/>
       <c r="H127" s="7"/>
     </row>
-    <row r="128" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="128" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F128" s="3"/>
       <c r="G128" s="8"/>
       <c r="H128" s="7"/>
     </row>
-    <row r="129" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="129" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F129" s="3"/>
       <c r="G129" s="8"/>
       <c r="H129" s="7"/>
     </row>
-    <row r="130" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="130" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F130" s="3"/>
       <c r="G130" s="8"/>
       <c r="H130" s="7"/>
     </row>
-    <row r="131" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="131" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F131" s="3"/>
       <c r="G131" s="8"/>
       <c r="H131" s="7"/>
     </row>
-    <row r="132" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="132" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F132" s="3"/>
       <c r="G132" s="8"/>
       <c r="H132" s="7"/>
     </row>
-    <row r="133" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="133" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F133" s="3"/>
       <c r="G133" s="8"/>
       <c r="H133" s="7"/>
     </row>
-    <row r="134" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="134" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F134" s="3"/>
       <c r="G134" s="8"/>
       <c r="H134" s="7"/>
     </row>
-    <row r="135" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="135" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F135" s="3"/>
       <c r="G135" s="8"/>
       <c r="H135" s="7"/>
     </row>
-    <row r="136" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="136" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F136" s="3"/>
       <c r="G136" s="8"/>
       <c r="H136" s="7"/>
     </row>
-    <row r="137" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="137" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F137" s="3"/>
       <c r="G137" s="8"/>
       <c r="H137" s="7"/>
     </row>
-    <row r="138" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="138" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F138" s="3"/>
       <c r="G138" s="8"/>
       <c r="H138" s="7"/>
     </row>
-    <row r="139" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="139" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F139" s="3"/>
       <c r="G139" s="8"/>
       <c r="H139" s="7"/>
     </row>
-    <row r="140" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="140" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F140" s="3"/>
       <c r="G140" s="8"/>
       <c r="H140" s="7"/>
     </row>
-    <row r="141" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="141" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F141" s="3"/>
       <c r="G141" s="8"/>
       <c r="H141" s="7"/>
     </row>
-    <row r="142" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="142" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F142" s="3"/>
       <c r="G142" s="8"/>
       <c r="H142" s="7"/>
     </row>
-    <row r="143" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="143" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F143" s="3"/>
       <c r="G143" s="8"/>
       <c r="H143" s="7"/>
     </row>
-    <row r="144" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="144" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F144" s="3"/>
       <c r="G144" s="8"/>
       <c r="H144" s="7"/>
     </row>
-    <row r="145" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="145" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F145" s="3"/>
       <c r="G145" s="8"/>
       <c r="H145" s="7"/>
     </row>
-    <row r="146" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="146" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F146" s="3"/>
       <c r="G146" s="8"/>
       <c r="H146" s="7"/>
     </row>
-    <row r="147" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="147" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F147" s="3"/>
       <c r="G147" s="8"/>
       <c r="H147" s="7"/>
     </row>
-    <row r="148" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="148" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F148" s="3"/>
       <c r="G148" s="8"/>
       <c r="H148" s="7"/>
     </row>
-    <row r="149" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="149" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F149" s="3"/>
       <c r="G149" s="8"/>
       <c r="H149" s="7"/>
     </row>
-    <row r="150" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="150" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F150" s="3"/>
       <c r="G150" s="8"/>
       <c r="H150" s="7"/>
     </row>
-    <row r="151" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="151" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F151" s="3"/>
       <c r="G151" s="8"/>
       <c r="H151" s="7"/>
     </row>
-    <row r="152" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="152" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F152" s="3"/>
       <c r="G152" s="8"/>
       <c r="H152" s="7"/>
     </row>
-    <row r="153" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="153" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F153" s="3"/>
       <c r="G153" s="8"/>
       <c r="H153" s="7"/>
     </row>
-    <row r="154" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="154" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F154" s="3"/>
       <c r="G154" s="8"/>
       <c r="H154" s="7"/>
     </row>
-    <row r="155" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="155" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F155" s="3"/>
       <c r="G155" s="8"/>
       <c r="H155" s="7"/>
     </row>
-    <row r="156" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="156" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F156" s="3"/>
       <c r="G156" s="8"/>
       <c r="H156" s="7"/>
     </row>
-    <row r="157" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="157" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F157" s="3"/>
       <c r="G157" s="8"/>
       <c r="H157" s="7"/>
     </row>
-    <row r="158" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="158" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F158" s="3"/>
       <c r="G158" s="8"/>
       <c r="H158" s="7"/>
     </row>
-    <row r="159" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="159" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F159" s="3"/>
       <c r="G159" s="8"/>
       <c r="H159" s="7"/>
     </row>
-    <row r="160" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="160" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F160" s="3"/>
       <c r="G160" s="8"/>
       <c r="H160" s="7"/>
     </row>
-    <row r="161" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="161" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F161" s="3"/>
       <c r="G161" s="8"/>
       <c r="H161" s="7"/>
     </row>
-    <row r="162" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="162" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F162" s="3"/>
       <c r="G162" s="8"/>
       <c r="H162" s="7"/>
     </row>
-    <row r="163" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="163" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F163" s="3"/>
       <c r="G163" s="8"/>
       <c r="H163" s="7"/>
     </row>
-    <row r="164" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="164" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F164" s="3"/>
       <c r="G164" s="8"/>
       <c r="H164" s="7"/>
     </row>
-    <row r="165" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="165" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F165" s="3"/>
       <c r="G165" s="8"/>
       <c r="H165" s="7"/>
     </row>
-    <row r="166" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="166" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F166" s="3"/>
       <c r="G166" s="8"/>
       <c r="H166" s="7"/>
     </row>
-    <row r="167" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="167" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F167" s="3"/>
       <c r="G167" s="8"/>
       <c r="H167" s="7"/>
     </row>
-    <row r="168" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="168" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F168" s="3"/>
       <c r="G168" s="8"/>
       <c r="H168" s="7"/>
     </row>
-    <row r="169" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="169" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F169" s="3"/>
       <c r="G169" s="8"/>
       <c r="H169" s="7"/>
     </row>
-    <row r="170" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="170" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F170" s="3"/>
       <c r="G170" s="8"/>
       <c r="H170" s="7"/>
     </row>
-    <row r="171" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="171" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F171" s="3"/>
       <c r="G171" s="8"/>
       <c r="H171" s="7"/>
     </row>
-    <row r="172" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="172" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F172" s="3"/>
       <c r="G172" s="8"/>
       <c r="H172" s="7"/>
     </row>
-    <row r="173" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="173" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F173" s="3"/>
       <c r="G173" s="8"/>
       <c r="H173" s="7"/>
     </row>
-    <row r="174" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="174" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F174" s="3"/>
       <c r="G174" s="8"/>
       <c r="H174" s="7"/>
     </row>
-    <row r="175" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="175" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F175" s="3"/>
       <c r="G175" s="8"/>
       <c r="H175" s="7"/>
     </row>
-    <row r="176" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="176" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F176" s="3"/>
       <c r="G176" s="8"/>
       <c r="H176" s="7"/>
     </row>
-    <row r="177" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="177" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F177" s="3"/>
       <c r="G177" s="8"/>
       <c r="H177" s="7"/>
     </row>
-    <row r="178" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="178" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F178" s="3"/>
       <c r="G178" s="8"/>
       <c r="H178" s="7"/>
     </row>
-    <row r="179" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="179" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F179" s="3"/>
       <c r="G179" s="8"/>
       <c r="H179" s="7"/>
     </row>
-    <row r="180" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="180" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F180" s="3"/>
       <c r="G180" s="8"/>
       <c r="H180" s="7"/>
     </row>
-    <row r="181" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="181" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F181" s="3"/>
       <c r="G181" s="8"/>
       <c r="H181" s="7"/>
     </row>
-    <row r="182" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="182" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F182" s="3"/>
       <c r="G182" s="8"/>
       <c r="H182" s="7"/>
     </row>
-    <row r="183" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="183" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F183" s="3"/>
       <c r="G183" s="8"/>
       <c r="H183" s="7"/>
     </row>
-    <row r="184" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="184" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F184" s="3"/>
       <c r="G184" s="8"/>
       <c r="H184" s="7"/>
     </row>
-    <row r="185" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="185" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F185" s="3"/>
       <c r="G185" s="8"/>
       <c r="H185" s="7"/>
     </row>
-    <row r="186" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="186" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F186" s="3"/>
       <c r="G186" s="8"/>
       <c r="H186" s="7"/>
     </row>
-    <row r="187" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="187" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F187" s="3"/>
       <c r="G187" s="8"/>
       <c r="H187" s="7"/>
     </row>
-    <row r="188" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="188" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F188" s="3"/>
       <c r="G188" s="8"/>
       <c r="H188" s="7"/>
     </row>
-    <row r="189" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="189" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F189" s="3"/>
       <c r="G189" s="8"/>
       <c r="H189" s="7"/>
     </row>
-    <row r="190" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="190" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F190" s="3"/>
       <c r="G190" s="8"/>
       <c r="H190" s="7"/>
     </row>
-    <row r="191" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="191" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F191" s="3"/>
       <c r="G191" s="8"/>
       <c r="H191" s="7"/>
     </row>
-    <row r="192" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="192" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F192" s="3"/>
       <c r="G192" s="8"/>
       <c r="H192" s="7"/>
     </row>
-    <row r="193" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="193" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F193" s="3"/>
       <c r="G193" s="8"/>
       <c r="H193" s="7"/>
     </row>
-    <row r="194" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="194" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F194" s="3"/>
       <c r="G194" s="8"/>
       <c r="H194" s="7"/>
     </row>
-    <row r="195" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="195" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F195" s="3"/>
       <c r="G195" s="8"/>
       <c r="H195" s="7"/>
     </row>
-    <row r="196" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="196" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F196" s="3"/>
       <c r="G196" s="8"/>
       <c r="H196" s="7"/>
     </row>
-    <row r="197" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="197" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F197" s="3"/>
       <c r="G197" s="8"/>
       <c r="H197" s="7"/>
     </row>
-    <row r="198" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="198" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F198" s="3"/>
       <c r="G198" s="8"/>
       <c r="H198" s="7"/>
     </row>
-    <row r="199" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="199" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F199" s="3"/>
       <c r="G199" s="8"/>
       <c r="H199" s="7"/>
     </row>
-    <row r="200" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="200" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F200" s="3"/>
       <c r="G200" s="8"/>
       <c r="H200" s="7"/>
     </row>
-    <row r="201" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="201" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F201" s="3"/>
       <c r="G201" s="8"/>
       <c r="H201" s="7"/>
     </row>
-    <row r="202" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="202" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F202" s="3"/>
       <c r="G202" s="8"/>
       <c r="H202" s="7"/>
     </row>
-    <row r="203" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="203" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F203" s="3"/>
       <c r="G203" s="8"/>
       <c r="H203" s="7"/>
     </row>
-    <row r="204" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="204" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F204" s="3"/>
       <c r="G204" s="8"/>
       <c r="H204" s="7"/>
     </row>
-    <row r="205" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="205" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F205" s="3"/>
       <c r="G205" s="8"/>
       <c r="H205" s="7"/>
     </row>
-    <row r="206" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="206" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F206" s="3"/>
       <c r="G206" s="8"/>
       <c r="H206" s="7"/>
     </row>
-    <row r="207" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="207" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F207" s="3"/>
       <c r="G207" s="8"/>
       <c r="H207" s="7"/>
     </row>
-    <row r="208" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="208" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F208" s="3"/>
       <c r="G208" s="8"/>
       <c r="H208" s="7"/>
     </row>
-    <row r="209" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="209" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F209" s="3"/>
       <c r="G209" s="8"/>
       <c r="H209" s="7"/>
     </row>
-    <row r="210" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="210" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F210" s="3"/>
       <c r="G210" s="8"/>
       <c r="H210" s="7"/>
     </row>
-    <row r="211" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="211" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F211" s="3"/>
       <c r="G211" s="8"/>
       <c r="H211" s="7"/>
     </row>
-    <row r="212" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="212" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F212" s="3"/>
       <c r="G212" s="8"/>
       <c r="H212" s="7"/>
     </row>
-    <row r="213" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="213" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F213" s="3"/>
       <c r="G213" s="8"/>
       <c r="H213" s="7"/>
     </row>
-    <row r="214" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="214" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F214" s="3"/>
       <c r="G214" s="8"/>
       <c r="H214" s="7"/>
     </row>
-    <row r="215" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="215" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F215" s="3"/>
       <c r="G215" s="8"/>
       <c r="H215" s="7"/>
     </row>
-    <row r="216" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="216" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F216" s="3"/>
       <c r="G216" s="8"/>
       <c r="H216" s="7"/>
     </row>
-    <row r="217" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="217" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F217" s="3"/>
       <c r="G217" s="8"/>
       <c r="H217" s="7"/>
     </row>
-    <row r="218" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="218" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F218" s="3"/>
       <c r="G218" s="8"/>
       <c r="H218" s="7"/>
     </row>
-    <row r="219" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="219" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F219" s="3"/>
       <c r="G219" s="8"/>
       <c r="H219" s="7"/>
     </row>
-    <row r="220" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="220" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F220" s="3"/>
       <c r="G220" s="8"/>
       <c r="H220" s="7"/>
     </row>
-    <row r="221" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="221" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F221" s="3"/>
       <c r="G221" s="8"/>
       <c r="H221" s="7"/>
     </row>
-    <row r="222" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="222" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F222" s="3"/>
       <c r="G222" s="8"/>
       <c r="H222" s="7"/>
     </row>
-    <row r="223" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="223" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F223" s="3"/>
       <c r="G223" s="8"/>
       <c r="H223" s="7"/>
     </row>
-    <row r="224" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="224" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F224" s="3"/>
       <c r="G224" s="8"/>
       <c r="H224" s="7"/>
     </row>
-    <row r="225" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="225" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F225" s="3"/>
       <c r="G225" s="8"/>
       <c r="H225" s="7"/>
     </row>
-    <row r="226" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="226" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F226" s="3"/>
       <c r="G226" s="8"/>
       <c r="H226" s="7"/>
     </row>
-    <row r="227" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="227" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F227" s="3"/>
       <c r="G227" s="8"/>
       <c r="H227" s="7"/>
     </row>
-    <row r="228" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="228" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F228" s="3"/>
       <c r="G228" s="8"/>
       <c r="H228" s="7"/>
     </row>
-    <row r="229" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="229" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F229" s="3"/>
       <c r="G229" s="8"/>
       <c r="H229" s="7"/>
     </row>
-    <row r="230" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="230" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F230" s="3"/>
       <c r="G230" s="8"/>
       <c r="H230" s="7"/>
     </row>
-    <row r="231" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="231" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F231" s="3"/>
       <c r="G231" s="8"/>
       <c r="H231" s="7"/>
     </row>
-    <row r="232" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="232" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F232" s="3"/>
       <c r="G232" s="8"/>
       <c r="H232" s="7"/>
     </row>
-    <row r="233" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="233" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F233" s="3"/>
       <c r="G233" s="8"/>
       <c r="H233" s="7"/>
     </row>
-    <row r="234" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="234" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F234" s="3"/>
       <c r="G234" s="8"/>
       <c r="H234" s="7"/>
     </row>
-    <row r="235" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="235" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F235" s="3"/>
       <c r="G235" s="8"/>
       <c r="H235" s="7"/>
     </row>
-    <row r="236" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="236" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F236" s="3"/>
       <c r="G236" s="8"/>
       <c r="H236" s="7"/>
     </row>
-    <row r="237" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="237" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F237" s="3"/>
       <c r="G237" s="8"/>
       <c r="H237" s="7"/>
     </row>
-    <row r="238" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="238" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F238" s="3"/>
       <c r="G238" s="8"/>
       <c r="H238" s="7"/>
     </row>
-    <row r="239" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="239" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F239" s="3"/>
       <c r="G239" s="8"/>
       <c r="H239" s="7"/>
     </row>
-    <row r="240" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="240" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F240" s="3"/>
       <c r="G240" s="8"/>
       <c r="H240" s="7"/>
     </row>
-    <row r="241" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="241" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F241" s="3"/>
       <c r="G241" s="8"/>
       <c r="H241" s="7"/>
     </row>
-    <row r="242" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="242" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F242" s="3"/>
       <c r="G242" s="8"/>
       <c r="H242" s="7"/>
     </row>
-    <row r="243" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="243" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F243" s="3"/>
       <c r="G243" s="8"/>
       <c r="H243" s="7"/>
     </row>
-    <row r="244" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="244" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F244" s="3"/>
       <c r="G244" s="8"/>
       <c r="H244" s="7"/>
     </row>
-    <row r="245" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="245" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F245" s="3"/>
       <c r="G245" s="8"/>
       <c r="H245" s="7"/>
     </row>
-    <row r="246" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="246" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F246" s="3"/>
       <c r="G246" s="8"/>
       <c r="H246" s="7"/>
     </row>
-    <row r="247" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="247" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F247" s="3"/>
       <c r="G247" s="8"/>
       <c r="H247" s="7"/>
     </row>
-    <row r="248" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="248" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F248" s="3"/>
       <c r="G248" s="8"/>
       <c r="H248" s="7"/>
     </row>
-    <row r="249" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="249" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F249" s="3"/>
       <c r="G249" s="8"/>
       <c r="H249" s="7"/>
     </row>
-    <row r="250" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="250" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F250" s="3"/>
       <c r="G250" s="8"/>
       <c r="H250" s="7"/>
     </row>
-    <row r="251" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="251" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F251" s="3"/>
       <c r="G251" s="8"/>
       <c r="H251" s="7"/>
     </row>
-    <row r="252" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="252" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F252" s="3"/>
       <c r="G252" s="8"/>
       <c r="H252" s="7"/>
     </row>
-    <row r="253" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="253" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F253" s="3"/>
       <c r="G253" s="8"/>
       <c r="H253" s="7"/>
     </row>
-    <row r="254" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="254" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F254" s="3"/>
       <c r="G254" s="8"/>
       <c r="H254" s="7"/>
     </row>
-    <row r="255" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="255" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F255" s="3"/>
       <c r="G255" s="8"/>
       <c r="H255" s="7"/>
     </row>
-    <row r="256" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="256" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F256" s="3"/>
       <c r="G256" s="8"/>
       <c r="H256" s="7"/>
     </row>
-    <row r="257" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="257" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F257" s="3"/>
       <c r="G257" s="8"/>
       <c r="H257" s="7"/>
     </row>
-    <row r="258" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="258" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F258" s="3"/>
       <c r="G258" s="8"/>
       <c r="H258" s="7"/>
     </row>
-    <row r="259" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="259" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F259" s="3"/>
       <c r="G259" s="8"/>
       <c r="H259" s="7"/>
     </row>
-    <row r="260" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="260" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F260" s="3"/>
       <c r="G260" s="8"/>
       <c r="H260" s="7"/>
     </row>
-    <row r="261" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="261" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F261" s="3"/>
       <c r="G261" s="8"/>
       <c r="H261" s="7"/>
     </row>
-    <row r="262" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="262" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F262" s="3"/>
       <c r="G262" s="8"/>
       <c r="H262" s="7"/>
     </row>
-    <row r="263" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="263" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F263" s="3"/>
       <c r="G263" s="8"/>
       <c r="H263" s="7"/>
     </row>
-    <row r="264" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="264" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F264" s="3"/>
       <c r="G264" s="8"/>
       <c r="H264" s="7"/>
     </row>
-    <row r="265" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="265" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F265" s="3"/>
       <c r="G265" s="8"/>
       <c r="H265" s="7"/>
     </row>
-    <row r="266" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="266" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F266" s="3"/>
       <c r="G266" s="8"/>
       <c r="H266" s="7"/>
     </row>
-    <row r="267" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="267" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F267" s="3"/>
       <c r="G267" s="8"/>
       <c r="H267" s="7"/>
     </row>
-    <row r="268" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="268" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F268" s="3"/>
       <c r="G268" s="8"/>
       <c r="H268" s="7"/>
     </row>
-    <row r="269" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="269" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F269" s="3"/>
       <c r="G269" s="8"/>
       <c r="H269" s="7"/>
     </row>
-    <row r="270" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="270" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F270" s="3"/>
       <c r="G270" s="8"/>
       <c r="H270" s="7"/>
     </row>
-    <row r="271" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="271" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F271" s="3"/>
       <c r="G271" s="8"/>
       <c r="H271" s="7"/>
     </row>
-    <row r="272" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="272" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F272" s="3"/>
       <c r="G272" s="8"/>
       <c r="H272" s="7"/>
     </row>
-    <row r="273" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="273" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F273" s="3"/>
       <c r="G273" s="8"/>
       <c r="H273" s="7"/>
     </row>
-    <row r="274" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="274" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F274" s="3"/>
       <c r="G274" s="8"/>
       <c r="H274" s="7"/>
     </row>
-    <row r="275" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="275" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F275" s="3"/>
       <c r="G275" s="8"/>
       <c r="H275" s="7"/>
     </row>
-    <row r="276" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="276" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F276" s="3"/>
       <c r="G276" s="8"/>
       <c r="H276" s="7"/>
     </row>
-    <row r="277" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="277" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F277" s="3"/>
       <c r="G277" s="8"/>
       <c r="H277" s="7"/>
     </row>
-    <row r="278" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="278" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F278" s="3"/>
       <c r="G278" s="8"/>
       <c r="H278" s="7"/>
     </row>
-    <row r="279" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="279" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F279" s="3"/>
       <c r="G279" s="8"/>
       <c r="H279" s="7"/>
     </row>
-    <row r="280" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="280" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F280" s="3"/>
       <c r="G280" s="8"/>
       <c r="H280" s="7"/>
     </row>
-    <row r="281" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="281" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F281" s="3"/>
       <c r="G281" s="8"/>
       <c r="H281" s="7"/>
     </row>
-    <row r="282" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="282" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F282" s="3"/>
       <c r="G282" s="8"/>
       <c r="H282" s="7"/>
     </row>
-    <row r="283" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="283" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F283" s="3"/>
       <c r="G283" s="8"/>
       <c r="H283" s="7"/>
     </row>
-    <row r="284" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="284" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F284" s="3"/>
       <c r="G284" s="8"/>
       <c r="H284" s="7"/>
     </row>
-    <row r="285" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="285" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F285" s="3"/>
       <c r="G285" s="8"/>
       <c r="H285" s="7"/>
     </row>
-    <row r="286" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="286" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F286" s="3"/>
       <c r="G286" s="8"/>
       <c r="H286" s="7"/>
     </row>
-    <row r="287" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="287" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F287" s="3"/>
       <c r="G287" s="8"/>
       <c r="H287" s="7"/>
     </row>
-    <row r="288" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="288" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F288" s="3"/>
       <c r="G288" s="8"/>
       <c r="H288" s="7"/>
     </row>
-    <row r="289" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="289" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F289" s="3"/>
       <c r="G289" s="8"/>
       <c r="H289" s="7"/>
     </row>
-    <row r="290" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="290" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F290" s="3"/>
       <c r="G290" s="8"/>
       <c r="H290" s="7"/>
     </row>
-    <row r="291" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="291" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F291" s="3"/>
       <c r="G291" s="8"/>
       <c r="H291" s="7"/>
     </row>
-    <row r="292" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="292" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F292" s="3"/>
       <c r="G292" s="8"/>
       <c r="H292" s="7"/>
     </row>
-    <row r="293" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="293" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F293" s="3"/>
       <c r="G293" s="8"/>
       <c r="H293" s="7"/>
     </row>
-    <row r="294" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="294" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F294" s="3"/>
       <c r="G294" s="8"/>
       <c r="H294" s="7"/>
     </row>
-    <row r="295" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="295" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F295" s="3"/>
       <c r="G295" s="8"/>
       <c r="H295" s="7"/>
     </row>
-    <row r="296" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="296" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F296" s="3"/>
       <c r="G296" s="8"/>
       <c r="H296" s="7"/>
     </row>
-    <row r="297" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="297" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F297" s="3"/>
       <c r="G297" s="8"/>
       <c r="H297" s="7"/>
     </row>
-    <row r="298" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="298" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F298" s="3"/>
       <c r="G298" s="8"/>
       <c r="H298" s="7"/>
     </row>
-    <row r="299" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="299" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F299" s="3"/>
       <c r="G299" s="8"/>
       <c r="H299" s="7"/>
     </row>
-    <row r="300" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="300" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F300" s="3"/>
       <c r="G300" s="8"/>
       <c r="H300" s="7"/>
     </row>
-    <row r="301" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="301" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F301" s="3"/>
       <c r="G301" s="8"/>
       <c r="H301" s="7"/>
     </row>
-    <row r="302" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="302" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F302" s="3"/>
       <c r="G302" s="8"/>
       <c r="H302" s="7"/>
     </row>
-    <row r="303" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="303" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F303" s="3"/>
       <c r="G303" s="8"/>
       <c r="H303" s="7"/>
     </row>
-    <row r="304" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="304" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F304" s="3"/>
       <c r="G304" s="8"/>
       <c r="H304" s="7"/>
     </row>
-    <row r="305" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="305" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F305" s="3"/>
       <c r="G305" s="8"/>
       <c r="H305" s="7"/>
     </row>
-    <row r="306" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="306" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F306" s="3"/>
       <c r="G306" s="8"/>
       <c r="H306" s="7"/>
     </row>
-    <row r="307" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="307" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F307" s="3"/>
       <c r="G307" s="8"/>
       <c r="H307" s="7"/>
     </row>
-    <row r="308" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="308" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F308" s="3"/>
       <c r="G308" s="8"/>
       <c r="H308" s="7"/>
     </row>
-    <row r="309" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="309" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F309" s="3"/>
       <c r="G309" s="8"/>
       <c r="H309" s="7"/>
     </row>
-    <row r="310" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="310" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F310" s="3"/>
       <c r="G310" s="8"/>
       <c r="H310" s="7"/>
     </row>
-    <row r="311" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="311" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F311" s="3"/>
       <c r="G311" s="8"/>
       <c r="H311" s="7"/>
     </row>
-    <row r="312" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="312" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F312" s="3"/>
       <c r="G312" s="8"/>
       <c r="H312" s="7"/>
     </row>
-    <row r="313" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="313" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F313" s="3"/>
       <c r="G313" s="8"/>
       <c r="H313" s="7"/>
     </row>
-    <row r="314" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="314" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F314" s="3"/>
       <c r="G314" s="8"/>
       <c r="H314" s="7"/>
     </row>
-    <row r="315" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="315" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F315" s="3"/>
       <c r="G315" s="8"/>
       <c r="H315" s="7"/>
     </row>
-    <row r="316" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="316" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F316" s="3"/>
       <c r="G316" s="8"/>
       <c r="H316" s="7"/>
     </row>
-    <row r="317" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="317" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F317" s="3"/>
       <c r="G317" s="8"/>
       <c r="H317" s="7"/>
     </row>
-    <row r="318" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="318" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F318" s="3"/>
       <c r="G318" s="8"/>
       <c r="H318" s="7"/>
     </row>
-    <row r="319" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="319" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F319" s="3"/>
       <c r="G319" s="8"/>
       <c r="H319" s="7"/>
     </row>
-    <row r="320" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="320" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F320" s="3"/>
       <c r="G320" s="8"/>
       <c r="H320" s="7"/>
     </row>
-    <row r="321" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="321" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F321" s="3"/>
       <c r="G321" s="8"/>
       <c r="H321" s="7"/>
     </row>
-    <row r="322" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="322" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F322" s="3"/>
       <c r="G322" s="8"/>
       <c r="H322" s="7"/>
     </row>
-    <row r="323" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="323" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F323" s="3"/>
       <c r="G323" s="8"/>
       <c r="H323" s="7"/>
     </row>
-    <row r="324" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="324" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F324" s="3"/>
       <c r="G324" s="8"/>
       <c r="H324" s="7"/>
     </row>
-    <row r="325" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="325" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F325" s="3"/>
       <c r="G325" s="8"/>
       <c r="H325" s="7"/>
     </row>
-    <row r="326" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="326" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F326" s="3"/>
       <c r="G326" s="8"/>
       <c r="H326" s="7"/>
     </row>
-    <row r="327" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="327" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F327" s="3"/>
       <c r="G327" s="8"/>
       <c r="H327" s="7"/>
     </row>
-    <row r="328" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="328" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F328" s="3"/>
       <c r="G328" s="8"/>
       <c r="H328" s="7"/>
     </row>
-    <row r="329" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="329" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F329" s="3"/>
       <c r="G329" s="8"/>
       <c r="H329" s="7"/>
     </row>
-    <row r="330" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="330" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F330" s="3"/>
       <c r="G330" s="8"/>
       <c r="H330" s="7"/>
     </row>
-    <row r="331" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="331" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F331" s="3"/>
       <c r="G331" s="8"/>
       <c r="H331" s="7"/>
     </row>
-    <row r="332" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="332" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F332" s="3"/>
       <c r="G332" s="8"/>
       <c r="H332" s="7"/>
     </row>
-    <row r="333" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="333" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F333" s="3"/>
       <c r="G333" s="8"/>
       <c r="H333" s="7"/>
     </row>
-    <row r="334" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="334" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F334" s="3"/>
       <c r="G334" s="8"/>
       <c r="H334" s="7"/>
     </row>
-    <row r="335" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="335" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F335" s="3"/>
       <c r="G335" s="8"/>
       <c r="H335" s="7"/>
     </row>
-    <row r="336" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="336" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F336" s="3"/>
       <c r="G336" s="8"/>
       <c r="H336" s="7"/>
     </row>
-    <row r="337" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="337" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F337" s="3"/>
       <c r="G337" s="8"/>
       <c r="H337" s="7"/>
     </row>
-    <row r="338" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="338" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F338" s="3"/>
       <c r="G338" s="8"/>
       <c r="H338" s="7"/>
     </row>
-    <row r="339" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="339" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F339" s="3"/>
       <c r="G339" s="8"/>
       <c r="H339" s="7"/>
     </row>
-    <row r="340" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="340" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F340" s="3"/>
       <c r="G340" s="8"/>
       <c r="H340" s="7"/>
     </row>
-    <row r="341" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="341" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F341" s="3"/>
       <c r="G341" s="8"/>
       <c r="H341" s="7"/>
     </row>
-    <row r="342" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="342" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F342" s="3"/>
       <c r="G342" s="8"/>
       <c r="H342" s="7"/>
     </row>
-    <row r="343" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="343" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F343" s="3"/>
       <c r="G343" s="8"/>
       <c r="H343" s="7"/>
     </row>
-    <row r="344" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="344" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F344" s="3"/>
       <c r="G344" s="8"/>
       <c r="H344" s="7"/>
     </row>
-    <row r="345" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="345" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F345" s="3"/>
       <c r="G345" s="8"/>
       <c r="H345" s="7"/>
     </row>
-    <row r="346" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="346" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F346" s="3"/>
       <c r="G346" s="8"/>
       <c r="H346" s="7"/>
     </row>
-    <row r="347" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="347" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F347" s="3"/>
       <c r="G347" s="8"/>
       <c r="H347" s="7"/>
     </row>
-    <row r="348" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="348" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F348" s="3"/>
       <c r="G348" s="8"/>
       <c r="H348" s="7"/>
     </row>
-    <row r="349" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="349" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F349" s="3"/>
       <c r="G349" s="8"/>
       <c r="H349" s="7"/>
     </row>
-    <row r="350" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="350" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F350" s="3"/>
       <c r="G350" s="8"/>
       <c r="H350" s="7"/>
     </row>
-    <row r="351" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="351" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F351" s="3"/>
       <c r="G351" s="8"/>
       <c r="H351" s="7"/>
     </row>
-    <row r="352" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="352" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F352" s="3"/>
       <c r="G352" s="8"/>
       <c r="H352" s="7"/>
     </row>
-    <row r="353" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="353" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F353" s="3"/>
       <c r="G353" s="8"/>
       <c r="H353" s="7"/>
     </row>
-    <row r="354" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="354" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F354" s="3"/>
       <c r="G354" s="8"/>
       <c r="H354" s="7"/>
     </row>
-    <row r="355" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="355" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F355" s="3"/>
       <c r="G355" s="8"/>
       <c r="H355" s="7"/>
     </row>
-    <row r="356" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="356" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F356" s="3"/>
       <c r="G356" s="8"/>
       <c r="H356" s="7"/>
     </row>
-    <row r="357" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="357" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F357" s="3"/>
       <c r="G357" s="8"/>
       <c r="H357" s="7"/>
     </row>
-    <row r="358" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="358" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F358" s="3"/>
       <c r="G358" s="8"/>
       <c r="H358" s="7"/>
     </row>
-    <row r="359" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="359" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F359" s="3"/>
       <c r="G359" s="8"/>
       <c r="H359" s="7"/>
     </row>
-    <row r="360" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="360" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F360" s="3"/>
       <c r="G360" s="8"/>
       <c r="H360" s="7"/>
     </row>
-    <row r="361" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="361" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F361" s="3"/>
       <c r="G361" s="8"/>
       <c r="H361" s="7"/>
     </row>
-    <row r="362" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="362" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F362" s="3"/>
       <c r="G362" s="8"/>
       <c r="H362" s="7"/>
     </row>
-    <row r="363" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="363" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F363" s="3"/>
       <c r="G363" s="8"/>
       <c r="H363" s="7"/>
     </row>
-    <row r="364" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="364" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F364" s="3"/>
       <c r="G364" s="8"/>
       <c r="H364" s="7"/>
     </row>
-    <row r="365" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="365" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F365" s="3"/>
       <c r="G365" s="8"/>
       <c r="H365" s="7"/>
     </row>
-    <row r="366" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="366" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F366" s="3"/>
       <c r="G366" s="8"/>
       <c r="H366" s="7"/>
     </row>
-    <row r="367" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="367" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F367" s="3"/>
       <c r="G367" s="8"/>
       <c r="H367" s="7"/>
     </row>
-    <row r="368" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="368" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F368" s="3"/>
       <c r="G368" s="8"/>
       <c r="H368" s="7"/>
     </row>
-    <row r="369" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="369" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F369" s="3"/>
       <c r="G369" s="8"/>
       <c r="H369" s="7"/>
     </row>
-    <row r="370" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="370" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F370" s="3"/>
       <c r="G370" s="8"/>
       <c r="H370" s="7"/>
     </row>
-    <row r="371" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="371" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F371" s="3"/>
       <c r="G371" s="8"/>
       <c r="H371" s="7"/>
     </row>
-    <row r="372" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="372" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F372" s="3"/>
       <c r="G372" s="8"/>
       <c r="H372" s="7"/>
     </row>
-    <row r="373" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="373" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F373" s="3"/>
       <c r="G373" s="8"/>
       <c r="H373" s="7"/>
     </row>
-    <row r="374" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="374" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F374" s="3"/>
       <c r="G374" s="8"/>
       <c r="H374" s="7"/>
     </row>
-    <row r="375" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="375" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F375" s="3"/>
       <c r="G375" s="8"/>
       <c r="H375" s="7"/>
     </row>
-    <row r="376" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="376" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F376" s="3"/>
       <c r="G376" s="8"/>
       <c r="H376" s="7"/>
     </row>
-    <row r="377" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="377" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F377" s="3"/>
       <c r="G377" s="8"/>
       <c r="H377" s="7"/>
     </row>
-    <row r="378" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="378" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F378" s="3"/>
       <c r="G378" s="8"/>
       <c r="H378" s="7"/>
     </row>
-    <row r="379" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="379" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F379" s="3"/>
       <c r="G379" s="8"/>
       <c r="H379" s="7"/>
     </row>
-    <row r="380" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="380" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F380" s="3"/>
       <c r="G380" s="8"/>
       <c r="H380" s="7"/>
     </row>
-    <row r="381" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="381" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F381" s="3"/>
       <c r="G381" s="8"/>
       <c r="H381" s="7"/>
     </row>
-    <row r="382" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="382" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F382" s="3"/>
       <c r="G382" s="8"/>
       <c r="H382" s="7"/>
     </row>
-    <row r="383" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="383" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F383" s="3"/>
       <c r="G383" s="8"/>
       <c r="H383" s="7"/>
     </row>
-    <row r="384" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="384" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F384" s="3"/>
       <c r="G384" s="8"/>
       <c r="H384" s="7"/>
     </row>
-    <row r="385" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="385" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F385" s="3"/>
       <c r="G385" s="8"/>
       <c r="H385" s="7"/>
     </row>
-    <row r="386" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="386" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F386" s="3"/>
       <c r="G386" s="8"/>
       <c r="H386" s="7"/>
     </row>
-    <row r="387" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="387" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F387" s="3"/>
       <c r="G387" s="8"/>
       <c r="H387" s="7"/>
     </row>
-    <row r="388" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="388" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F388" s="3"/>
       <c r="G388" s="8"/>
       <c r="H388" s="7"/>
     </row>
-    <row r="389" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="389" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F389" s="3"/>
       <c r="G389" s="8"/>
       <c r="H389" s="7"/>
     </row>
-    <row r="390" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="390" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F390" s="3"/>
       <c r="G390" s="8"/>
       <c r="H390" s="7"/>
     </row>
-    <row r="391" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="391" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F391" s="3"/>
       <c r="G391" s="8"/>
       <c r="H391" s="7"/>
     </row>
-    <row r="392" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="392" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F392" s="3"/>
       <c r="G392" s="8"/>
       <c r="H392" s="7"/>
     </row>
-    <row r="393" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="393" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F393" s="3"/>
       <c r="G393" s="8"/>
       <c r="H393" s="7"/>
     </row>
-    <row r="394" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="394" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F394" s="3"/>
       <c r="G394" s="8"/>
       <c r="H394" s="7"/>
     </row>
-    <row r="395" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="395" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F395" s="3"/>
       <c r="G395" s="8"/>
       <c r="H395" s="7"/>
     </row>
-    <row r="396" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="396" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F396" s="3"/>
       <c r="G396" s="8"/>
       <c r="H396" s="7"/>
     </row>
-    <row r="397" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="397" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F397" s="3"/>
       <c r="G397" s="8"/>
       <c r="H397" s="7"/>
     </row>
-    <row r="398" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="398" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F398" s="3"/>
       <c r="G398" s="8"/>
       <c r="H398" s="7"/>
     </row>
-    <row r="399" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="399" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F399" s="3"/>
       <c r="G399" s="8"/>
       <c r="H399" s="7"/>
     </row>
-    <row r="400" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="400" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F400" s="3"/>
       <c r="G400" s="8"/>
       <c r="H400" s="7"/>
     </row>
-    <row r="401" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="401" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F401" s="3"/>
       <c r="G401" s="8"/>
       <c r="H401" s="7"/>
     </row>
-    <row r="402" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="402" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F402" s="3"/>
       <c r="G402" s="8"/>
       <c r="H402" s="7"/>
     </row>
-    <row r="403" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="403" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F403" s="3"/>
       <c r="G403" s="8"/>
       <c r="H403" s="7"/>
     </row>
-    <row r="404" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="404" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F404" s="3"/>
       <c r="G404" s="8"/>
       <c r="H404" s="7"/>
     </row>
-    <row r="405" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="405" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F405" s="3"/>
       <c r="G405" s="8"/>
       <c r="H405" s="7"/>
     </row>
-    <row r="406" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="406" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F406" s="3"/>
       <c r="G406" s="8"/>
       <c r="H406" s="7"/>
     </row>
-    <row r="407" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="407" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F407" s="3"/>
       <c r="G407" s="8"/>
       <c r="H407" s="7"/>
     </row>
-    <row r="408" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="408" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F408" s="3"/>
       <c r="G408" s="8"/>
       <c r="H408" s="7"/>
     </row>
-    <row r="409" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="409" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F409" s="3"/>
       <c r="G409" s="8"/>
       <c r="H409" s="7"/>
     </row>
-    <row r="410" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="410" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F410" s="3"/>
       <c r="G410" s="8"/>
       <c r="H410" s="7"/>
     </row>
-    <row r="411" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="411" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F411" s="3"/>
       <c r="G411" s="8"/>
       <c r="H411" s="7"/>
     </row>
-    <row r="412" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="412" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F412" s="3"/>
       <c r="G412" s="8"/>
       <c r="H412" s="7"/>
     </row>
-    <row r="413" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="413" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F413" s="3"/>
       <c r="G413" s="8"/>
       <c r="H413" s="7"/>
     </row>
-    <row r="414" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="414" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F414" s="3"/>
       <c r="G414" s="8"/>
       <c r="H414" s="7"/>
     </row>
-    <row r="415" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="415" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F415" s="3"/>
       <c r="G415" s="8"/>
       <c r="H415" s="7"/>
     </row>
-    <row r="416" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="416" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F416" s="3"/>
       <c r="G416" s="8"/>
       <c r="H416" s="7"/>
     </row>
-    <row r="417" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="417" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F417" s="3"/>
       <c r="G417" s="8"/>
       <c r="H417" s="7"/>
     </row>
-    <row r="418" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="418" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F418" s="3"/>
       <c r="G418" s="8"/>
       <c r="H418" s="7"/>
     </row>
-    <row r="419" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="419" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F419" s="3"/>
       <c r="G419" s="8"/>
       <c r="H419" s="7"/>
     </row>
-    <row r="420" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="420" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F420" s="3"/>
       <c r="G420" s="8"/>
       <c r="H420" s="7"/>
     </row>
-    <row r="421" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="421" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F421" s="3"/>
       <c r="G421" s="8"/>
       <c r="H421" s="7"/>
     </row>
-    <row r="422" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="422" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F422" s="3"/>
       <c r="G422" s="8"/>
       <c r="H422" s="7"/>
     </row>
-    <row r="423" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="423" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F423" s="3"/>
       <c r="G423" s="8"/>
       <c r="H423" s="7"/>
     </row>
-    <row r="424" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="424" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F424" s="3"/>
       <c r="G424" s="8"/>
       <c r="H424" s="7"/>
     </row>
-    <row r="425" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="425" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F425" s="3"/>
       <c r="G425" s="8"/>
       <c r="H425" s="7"/>
     </row>
-    <row r="426" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="426" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F426" s="3"/>
       <c r="G426" s="8"/>
       <c r="H426" s="7"/>
     </row>
-    <row r="427" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="427" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F427" s="3"/>
       <c r="G427" s="8"/>
       <c r="H427" s="7"/>
     </row>
-    <row r="428" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="428" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F428" s="3"/>
       <c r="G428" s="8"/>
       <c r="H428" s="7"/>
     </row>
-    <row r="429" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="429" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F429" s="3"/>
       <c r="G429" s="8"/>
       <c r="H429" s="7"/>
     </row>
-    <row r="430" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="430" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F430" s="3"/>
       <c r="G430" s="8"/>
       <c r="H430" s="7"/>
     </row>
-    <row r="431" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="431" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F431" s="3"/>
       <c r="G431" s="8"/>
       <c r="H431" s="7"/>
     </row>
-    <row r="432" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="432" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F432" s="3"/>
       <c r="G432" s="8"/>
       <c r="H432" s="7"/>
     </row>
-    <row r="433" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="433" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F433" s="3"/>
       <c r="G433" s="8"/>
       <c r="H433" s="7"/>
     </row>
-    <row r="434" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="434" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F434" s="3"/>
       <c r="G434" s="8"/>
       <c r="H434" s="7"/>
     </row>
-    <row r="435" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="435" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F435" s="3"/>
       <c r="G435" s="8"/>
       <c r="H435" s="7"/>
     </row>
-    <row r="436" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="436" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F436" s="3"/>
       <c r="G436" s="8"/>
       <c r="H436" s="7"/>
     </row>
-    <row r="437" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="437" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F437" s="3"/>
       <c r="G437" s="8"/>
       <c r="H437" s="7"/>
     </row>
-    <row r="438" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="438" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F438" s="3"/>
       <c r="G438" s="8"/>
       <c r="H438" s="7"/>
     </row>
-    <row r="439" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="439" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F439" s="3"/>
       <c r="G439" s="8"/>
       <c r="H439" s="7"/>
     </row>
-    <row r="440" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="440" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F440" s="3"/>
       <c r="G440" s="8"/>
       <c r="H440" s="7"/>
     </row>
-    <row r="441" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="441" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F441" s="3"/>
       <c r="G441" s="8"/>
       <c r="H441" s="7"/>
     </row>
-    <row r="442" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="442" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F442" s="3"/>
       <c r="G442" s="8"/>
       <c r="H442" s="7"/>
     </row>
-    <row r="443" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="443" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F443" s="3"/>
       <c r="G443" s="8"/>
       <c r="H443" s="7"/>
     </row>
-    <row r="444" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="444" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F444" s="3"/>
       <c r="G444" s="8"/>
       <c r="H444" s="7"/>
     </row>
-    <row r="445" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="445" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F445" s="3"/>
       <c r="G445" s="8"/>
       <c r="H445" s="7"/>
     </row>
-    <row r="446" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="446" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F446" s="3"/>
       <c r="G446" s="8"/>
       <c r="H446" s="7"/>
     </row>
-    <row r="447" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="447" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F447" s="3"/>
       <c r="G447" s="8"/>
       <c r="H447" s="7"/>
     </row>
-    <row r="448" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="448" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F448" s="3"/>
       <c r="G448" s="8"/>
       <c r="H448" s="7"/>
     </row>
-    <row r="449" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="449" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F449" s="3"/>
       <c r="G449" s="8"/>
       <c r="H449" s="7"/>
     </row>
-    <row r="450" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="450" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F450" s="3"/>
       <c r="G450" s="8"/>
       <c r="H450" s="7"/>
     </row>
-    <row r="451" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="451" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F451" s="3"/>
       <c r="G451" s="8"/>
       <c r="H451" s="7"/>
     </row>
-    <row r="452" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="452" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F452" s="3"/>
       <c r="G452" s="8"/>
       <c r="H452" s="7"/>
     </row>
-    <row r="453" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="453" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F453" s="3"/>
       <c r="G453" s="8"/>
       <c r="H453" s="7"/>
     </row>
-    <row r="454" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="454" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F454" s="3"/>
       <c r="G454" s="8"/>
       <c r="H454" s="7"/>
     </row>
-    <row r="455" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="455" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F455" s="3"/>
       <c r="G455" s="8"/>
       <c r="H455" s="7"/>
     </row>
-    <row r="456" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="456" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F456" s="3"/>
       <c r="G456" s="8"/>
       <c r="H456" s="7"/>
     </row>
-    <row r="457" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="457" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F457" s="3"/>
       <c r="G457" s="8"/>
       <c r="H457" s="7"/>
     </row>
-    <row r="458" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="458" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F458" s="3"/>
       <c r="G458" s="8"/>
       <c r="H458" s="7"/>
     </row>
-    <row r="459" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="459" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F459" s="3"/>
       <c r="G459" s="8"/>
       <c r="H459" s="7"/>
     </row>
-    <row r="460" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="460" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F460" s="3"/>
       <c r="G460" s="8"/>
       <c r="H460" s="7"/>
     </row>
-    <row r="461" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="461" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F461" s="3"/>
       <c r="G461" s="8"/>
       <c r="H461" s="7"/>
     </row>
-    <row r="462" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="462" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F462" s="3"/>
       <c r="G462" s="8"/>
       <c r="H462" s="7"/>
     </row>
-    <row r="463" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="463" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F463" s="3"/>
       <c r="G463" s="8"/>
       <c r="H463" s="7"/>
     </row>
-    <row r="464" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="464" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F464" s="3"/>
       <c r="G464" s="8"/>
       <c r="H464" s="7"/>
     </row>
-    <row r="465" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="465" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F465" s="3"/>
       <c r="G465" s="8"/>
       <c r="H465" s="7"/>
     </row>
-    <row r="466" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="466" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F466" s="3"/>
       <c r="G466" s="8"/>
       <c r="H466" s="7"/>
     </row>
-    <row r="467" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="467" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F467" s="3"/>
       <c r="G467" s="8"/>
       <c r="H467" s="7"/>
     </row>
-    <row r="468" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="468" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F468" s="3"/>
       <c r="G468" s="8"/>
       <c r="H468" s="7"/>
     </row>
-    <row r="469" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="469" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F469" s="3"/>
       <c r="G469" s="8"/>
       <c r="H469" s="7"/>
     </row>
-    <row r="470" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="470" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F470" s="3"/>
       <c r="G470" s="8"/>
       <c r="H470" s="7"/>
     </row>
-    <row r="471" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="471" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F471" s="3"/>
       <c r="G471" s="8"/>
       <c r="H471" s="7"/>
     </row>
-    <row r="472" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="472" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F472" s="3"/>
       <c r="G472" s="8"/>
       <c r="H472" s="7"/>
     </row>
-    <row r="473" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="473" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F473" s="3"/>
       <c r="G473" s="8"/>
       <c r="H473" s="7"/>
     </row>
-    <row r="474" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="474" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F474" s="3"/>
       <c r="G474" s="8"/>
       <c r="H474" s="7"/>
     </row>
-    <row r="475" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="475" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F475" s="3"/>
       <c r="G475" s="8"/>
       <c r="H475" s="7"/>
     </row>
-    <row r="476" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="476" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F476" s="3"/>
       <c r="G476" s="8"/>
       <c r="H476" s="7"/>
     </row>
-    <row r="477" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="477" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F477" s="3"/>
       <c r="G477" s="8"/>
       <c r="H477" s="7"/>
     </row>
-    <row r="478" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="478" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F478" s="3"/>
       <c r="G478" s="8"/>
       <c r="H478" s="7"/>
     </row>
-    <row r="479" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="479" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F479" s="3"/>
       <c r="G479" s="8"/>
       <c r="H479" s="7"/>
     </row>
-    <row r="480" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="480" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F480" s="3"/>
       <c r="G480" s="8"/>
       <c r="H480" s="7"/>
     </row>
-    <row r="481" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="481" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F481" s="3"/>
       <c r="G481" s="8"/>
       <c r="H481" s="7"/>
     </row>
-    <row r="482" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="482" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F482" s="3"/>
       <c r="G482" s="8"/>
       <c r="H482" s="7"/>
     </row>
-    <row r="483" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="483" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F483" s="3"/>
       <c r="G483" s="8"/>
       <c r="H483" s="7"/>
     </row>
-    <row r="484" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="484" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F484" s="3"/>
       <c r="G484" s="8"/>
       <c r="H484" s="7"/>
     </row>
-    <row r="485" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="485" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F485" s="3"/>
       <c r="G485" s="8"/>
       <c r="H485" s="7"/>
     </row>
-    <row r="486" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="486" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F486" s="3"/>
       <c r="G486" s="8"/>
       <c r="H486" s="7"/>
     </row>
-    <row r="487" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="487" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F487" s="3"/>
       <c r="G487" s="8"/>
       <c r="H487" s="7"/>
     </row>
-    <row r="488" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="488" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F488" s="3"/>
       <c r="G488" s="8"/>
       <c r="H488" s="7"/>
     </row>
-    <row r="489" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="489" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F489" s="3"/>
       <c r="G489" s="8"/>
       <c r="H489" s="7"/>
     </row>
-    <row r="490" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="490" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F490" s="3"/>
       <c r="G490" s="8"/>
       <c r="H490" s="7"/>
     </row>
-    <row r="491" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="491" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F491" s="3"/>
       <c r="G491" s="8"/>
       <c r="H491" s="7"/>
     </row>
-    <row r="492" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="492" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F492" s="3"/>
       <c r="G492" s="8"/>
       <c r="H492" s="7"/>
     </row>
-    <row r="493" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="493" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F493" s="3"/>
       <c r="G493" s="8"/>
       <c r="H493" s="7"/>
     </row>
-    <row r="494" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="494" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F494" s="3"/>
       <c r="G494" s="8"/>
       <c r="H494" s="7"/>
     </row>
-    <row r="495" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="495" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F495" s="3"/>
       <c r="G495" s="8"/>
       <c r="H495" s="7"/>
     </row>
-    <row r="496" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="496" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F496" s="3"/>
       <c r="G496" s="8"/>
       <c r="H496" s="7"/>
     </row>
-    <row r="497" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="497" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F497" s="3"/>
       <c r="G497" s="8"/>
       <c r="H497" s="7"/>
     </row>
-    <row r="498" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="498" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F498" s="3"/>
       <c r="G498" s="8"/>
       <c r="H498" s="7"/>
     </row>
-    <row r="499" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="499" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F499" s="3"/>
       <c r="G499" s="8"/>
       <c r="H499" s="7"/>
     </row>
-    <row r="500" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="500" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F500" s="3"/>
       <c r="G500" s="8"/>
       <c r="H500" s="7"/>
     </row>
-    <row r="501" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="501" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F501" s="3"/>
       <c r="G501" s="8"/>
       <c r="H501" s="7"/>
     </row>
-    <row r="502" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="502" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F502" s="3"/>
       <c r="G502" s="8"/>
       <c r="H502" s="7"/>
     </row>
-    <row r="503" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="503" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F503" s="3"/>
       <c r="G503" s="8"/>
       <c r="H503" s="7"/>
     </row>
-    <row r="504" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="504" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F504" s="3"/>
       <c r="G504" s="8"/>
       <c r="H504" s="7"/>
     </row>
-    <row r="505" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="505" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F505" s="3"/>
       <c r="G505" s="8"/>
       <c r="H505" s="7"/>
     </row>
-    <row r="506" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="506" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F506" s="3"/>
       <c r="G506" s="8"/>
       <c r="H506" s="7"/>
     </row>
-    <row r="507" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="507" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F507" s="3"/>
       <c r="G507" s="8"/>
       <c r="H507" s="7"/>
     </row>
-    <row r="508" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="508" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F508" s="3"/>
       <c r="G508" s="8"/>
       <c r="H508" s="7"/>
     </row>
-    <row r="509" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="509" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F509" s="3"/>
       <c r="G509" s="8"/>
       <c r="H509" s="7"/>
     </row>
-    <row r="510" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="510" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F510" s="3"/>
       <c r="G510" s="8"/>
       <c r="H510" s="7"/>
     </row>
-    <row r="511" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="511" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F511" s="3"/>
       <c r="G511" s="8"/>
       <c r="H511" s="7"/>
     </row>
-    <row r="512" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="512" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F512" s="3"/>
       <c r="G512" s="8"/>
       <c r="H512" s="7"/>
     </row>
-    <row r="513" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="513" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F513" s="3"/>
       <c r="G513" s="8"/>
       <c r="H513" s="7"/>
     </row>
-    <row r="514" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="514" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F514" s="3"/>
       <c r="G514" s="8"/>
       <c r="H514" s="7"/>
     </row>
-    <row r="515" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="515" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F515" s="3"/>
       <c r="G515" s="8"/>
       <c r="H515" s="7"/>
     </row>
-    <row r="516" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="516" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F516" s="3"/>
       <c r="G516" s="8"/>
       <c r="H516" s="7"/>
     </row>
-    <row r="517" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="517" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F517" s="3"/>
       <c r="G517" s="8"/>
       <c r="H517" s="7"/>
     </row>
-    <row r="518" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="518" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F518" s="3"/>
       <c r="G518" s="8"/>
       <c r="H518" s="7"/>
     </row>
-    <row r="519" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="519" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F519" s="3"/>
       <c r="G519" s="8"/>
       <c r="H519" s="7"/>
     </row>
-    <row r="520" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="520" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F520" s="3"/>
       <c r="G520" s="8"/>
       <c r="H520" s="7"/>
     </row>
-    <row r="521" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="521" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F521" s="3"/>
       <c r="G521" s="8"/>
       <c r="H521" s="7"/>
     </row>
-    <row r="522" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="522" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F522" s="3"/>
       <c r="G522" s="8"/>
       <c r="H522" s="7"/>
     </row>
-    <row r="523" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="523" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F523" s="3"/>
       <c r="G523" s="8"/>
       <c r="H523" s="7"/>
     </row>
-    <row r="524" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="524" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F524" s="3"/>
       <c r="G524" s="8"/>
       <c r="H524" s="7"/>
     </row>
-    <row r="525" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="525" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F525" s="3"/>
       <c r="G525" s="8"/>
       <c r="H525" s="7"/>
     </row>
-    <row r="526" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="526" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F526" s="3"/>
       <c r="G526" s="8"/>
       <c r="H526" s="7"/>
     </row>
-    <row r="527" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="527" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F527" s="3"/>
       <c r="G527" s="8"/>
       <c r="H527" s="7"/>
     </row>
-    <row r="528" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="528" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F528" s="3"/>
       <c r="G528" s="8"/>
       <c r="H528" s="7"/>
     </row>
-    <row r="529" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="529" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F529" s="3"/>
       <c r="G529" s="8"/>
       <c r="H529" s="7"/>
     </row>
-    <row r="530" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="530" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F530" s="3"/>
       <c r="G530" s="8"/>
       <c r="H530" s="7"/>
     </row>
-    <row r="531" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="531" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F531" s="3"/>
       <c r="G531" s="8"/>
       <c r="H531" s="7"/>
     </row>
-    <row r="532" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="532" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F532" s="3"/>
       <c r="G532" s="8"/>
       <c r="H532" s="7"/>
     </row>
-    <row r="533" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="533" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F533" s="3"/>
       <c r="G533" s="8"/>
       <c r="H533" s="7"/>
     </row>
-    <row r="534" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="534" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F534" s="3"/>
       <c r="G534" s="8"/>
       <c r="H534" s="7"/>
     </row>
-    <row r="535" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="535" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F535" s="3"/>
       <c r="G535" s="8"/>
       <c r="H535" s="7"/>
     </row>
-    <row r="536" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="536" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F536" s="3"/>
       <c r="G536" s="8"/>
       <c r="H536" s="7"/>
     </row>
-    <row r="537" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="537" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F537" s="3"/>
       <c r="G537" s="8"/>
       <c r="H537" s="7"/>
     </row>
-    <row r="538" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="538" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F538" s="3"/>
       <c r="G538" s="8"/>
       <c r="H538" s="7"/>
     </row>
-    <row r="539" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="539" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F539" s="3"/>
       <c r="G539" s="8"/>
       <c r="H539" s="7"/>
     </row>
-    <row r="540" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="540" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F540" s="3"/>
       <c r="G540" s="8"/>
       <c r="H540" s="7"/>
     </row>
-    <row r="541" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="541" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F541" s="3"/>
       <c r="G541" s="8"/>
       <c r="H541" s="7"/>
     </row>
-    <row r="542" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="542" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F542" s="3"/>
       <c r="G542" s="8"/>
       <c r="H542" s="7"/>
     </row>
-    <row r="543" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="543" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F543" s="3"/>
       <c r="G543" s="8"/>
       <c r="H543" s="7"/>
     </row>
-    <row r="544" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="544" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F544" s="3"/>
       <c r="G544" s="8"/>
       <c r="H544" s="7"/>
     </row>
-    <row r="545" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="545" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F545" s="3"/>
       <c r="G545" s="8"/>
       <c r="H545" s="7"/>
     </row>
-    <row r="546" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="546" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F546" s="3"/>
       <c r="G546" s="8"/>
       <c r="H546" s="7"/>
     </row>
-    <row r="547" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="547" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F547" s="3"/>
       <c r="G547" s="8"/>
       <c r="H547" s="7"/>
     </row>
-    <row r="548" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="548" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F548" s="3"/>
       <c r="G548" s="8"/>
       <c r="H548" s="7"/>
     </row>
-    <row r="549" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="549" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F549" s="3"/>
       <c r="G549" s="8"/>
       <c r="H549" s="7"/>
     </row>
-    <row r="550" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="550" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F550" s="3"/>
       <c r="G550" s="8"/>
       <c r="H550" s="7"/>
     </row>
-    <row r="551" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="551" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F551" s="3"/>
       <c r="G551" s="8"/>
       <c r="H551" s="7"/>
     </row>
-    <row r="552" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="552" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F552" s="3"/>
       <c r="G552" s="8"/>
       <c r="H552" s="7"/>
     </row>
-    <row r="553" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="553" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F553" s="3"/>
       <c r="G553" s="8"/>
       <c r="H553" s="7"/>
     </row>
-    <row r="554" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="554" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F554" s="3"/>
       <c r="G554" s="8"/>
       <c r="H554" s="7"/>
     </row>
-    <row r="555" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="555" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F555" s="3"/>
       <c r="G555" s="8"/>
       <c r="H555" s="7"/>
     </row>
-    <row r="556" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="556" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F556" s="3"/>
       <c r="G556" s="8"/>
       <c r="H556" s="7"/>
     </row>
-    <row r="557" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="557" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F557" s="3"/>
       <c r="G557" s="8"/>
       <c r="H557" s="7"/>
     </row>
-    <row r="558" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="558" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F558" s="3"/>
       <c r="G558" s="8"/>
       <c r="H558" s="7"/>
     </row>
-    <row r="559" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="559" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F559" s="3"/>
       <c r="G559" s="8"/>
       <c r="H559" s="7"/>
     </row>
-    <row r="560" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="560" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F560" s="3"/>
       <c r="G560" s="8"/>
       <c r="H560" s="7"/>
     </row>
-    <row r="561" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="561" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F561" s="3"/>
       <c r="G561" s="8"/>
       <c r="H561" s="7"/>
     </row>
-    <row r="562" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="562" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F562" s="3"/>
       <c r="G562" s="8"/>
       <c r="H562" s="7"/>
     </row>
-    <row r="563" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="563" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F563" s="3"/>
       <c r="G563" s="8"/>
       <c r="H563" s="7"/>
     </row>
-    <row r="564" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="564" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F564" s="3"/>
       <c r="G564" s="8"/>
       <c r="H564" s="7"/>
     </row>
-    <row r="565" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="565" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F565" s="3"/>
       <c r="G565" s="8"/>
       <c r="H565" s="7"/>
     </row>
-    <row r="566" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="566" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F566" s="3"/>
       <c r="G566" s="8"/>
       <c r="H566" s="7"/>
     </row>
-    <row r="567" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="567" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F567" s="3"/>
       <c r="G567" s="8"/>
       <c r="H567" s="7"/>
     </row>
-    <row r="568" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="568" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F568" s="3"/>
       <c r="G568" s="8"/>
       <c r="H568" s="7"/>
     </row>
-    <row r="569" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="569" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F569" s="3"/>
       <c r="G569" s="8"/>
       <c r="H569" s="7"/>
     </row>
-    <row r="570" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="570" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F570" s="3"/>
       <c r="G570" s="8"/>
       <c r="H570" s="7"/>
     </row>
-    <row r="571" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="571" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F571" s="3"/>
       <c r="G571" s="8"/>
       <c r="H571" s="7"/>
     </row>
-    <row r="572" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="572" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F572" s="3"/>
       <c r="G572" s="8"/>
       <c r="H572" s="7"/>
     </row>
-    <row r="573" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="573" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F573" s="3"/>
       <c r="G573" s="8"/>
       <c r="H573" s="7"/>
     </row>
-    <row r="574" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="574" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F574" s="3"/>
       <c r="G574" s="8"/>
       <c r="H574" s="7"/>
     </row>
-    <row r="575" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="575" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F575" s="3"/>
       <c r="G575" s="8"/>
       <c r="H575" s="7"/>
     </row>
-    <row r="576" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="576" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F576" s="3"/>
       <c r="G576" s="8"/>
       <c r="H576" s="7"/>
     </row>
-    <row r="577" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="577" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F577" s="3"/>
       <c r="G577" s="8"/>
       <c r="H577" s="7"/>
     </row>
-    <row r="578" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="578" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F578" s="3"/>
       <c r="G578" s="8"/>
       <c r="H578" s="7"/>
     </row>
-    <row r="579" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="579" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F579" s="3"/>
       <c r="G579" s="8"/>
       <c r="H579" s="7"/>
     </row>
-    <row r="580" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="580" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F580" s="3"/>
       <c r="G580" s="8"/>
       <c r="H580" s="7"/>
     </row>
-    <row r="581" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="581" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F581" s="3"/>
       <c r="G581" s="8"/>
       <c r="H581" s="7"/>
     </row>
-    <row r="582" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="582" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F582" s="3"/>
       <c r="G582" s="8"/>
       <c r="H582" s="7"/>
     </row>
-    <row r="583" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="583" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F583" s="3"/>
       <c r="G583" s="8"/>
       <c r="H583" s="7"/>
     </row>
-    <row r="584" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="584" spans="6:8" x14ac:dyDescent="0.25">
       <c r="G584" s="8"/>
     </row>
   </sheetData>
+  <sortState ref="J18:J32">
+    <sortCondition descending="1" ref="J18"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Input/MATSimInputFigure4p3r.xlsx
+++ b/Input/MATSimInputFigure4p3r.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20352"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjaarda\Desktop\SwissTraffic\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A8DEA1-85DE-41E2-B67B-B02DD4754933}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20715" windowHeight="13275" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20715" windowHeight="13275" tabRatio="813"/>
   </bookViews>
   <sheets>
     <sheet name="BaseData" sheetId="10" r:id="rId1"/>
     <sheet name="LaneData" sheetId="11" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -145,7 +144,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -1398,27 +1397,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="5" width="11.140625" customWidth="1"/>
-    <col min="6" max="8" width="11.140625" style="3" customWidth="1"/>
-    <col min="9" max="15" width="11.140625" customWidth="1"/>
-    <col min="16" max="16" width="23.42578125" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" customWidth="1"/>
-    <col min="19" max="19" width="12.28515625" customWidth="1"/>
+    <col min="1" max="5" width="11.1328125" customWidth="1"/>
+    <col min="6" max="8" width="11.1328125" style="3" customWidth="1"/>
+    <col min="9" max="15" width="11.1328125" customWidth="1"/>
+    <col min="16" max="16" width="23.3984375" customWidth="1"/>
+    <col min="18" max="18" width="14.73046875" customWidth="1"/>
+    <col min="19" max="19" width="12.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1477,7 +1476,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A2" s="5">
         <v>2000000</v>
       </c>
@@ -1503,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="5">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="J2" s="5">
         <v>1</v>
@@ -1536,7 +1535,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A3" s="5">
         <v>2000000</v>
       </c>
@@ -1562,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="5">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="J3" s="5">
         <v>1</v>
@@ -1595,7 +1594,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A4" s="5">
         <v>2000000</v>
       </c>
@@ -1621,7 +1620,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="5">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="J4" s="5">
         <v>1</v>
@@ -1654,7 +1653,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A9" s="2"/>
     </row>
   </sheetData>
@@ -1663,27 +1662,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="A1:K584"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="3"/>
-    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="12.1328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.73046875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.86328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.59765625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9.1328125" style="3"/>
+    <col min="6" max="6" width="11.3984375" customWidth="1"/>
     <col min="7" max="7" width="9" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="8" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1718,7 +1719,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1753,7 +1754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1788,7 +1789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -1817,7 +1818,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -1846,7 +1847,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1866,7 +1867,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1887,7 +1888,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1908,7 +1909,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1929,7 +1930,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1950,7 +1951,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1971,7 +1972,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1992,7 +1993,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -2011,7 +2012,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -2030,7 +2031,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2049,7 +2050,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -2068,7 +2069,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -2087,7 +2088,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2106,7 +2107,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -2125,7 +2126,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -2144,7 +2145,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -2163,7 +2164,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2182,7 +2183,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -2199,7 +2200,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -2216,7 +2217,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -2233,7 +2234,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -2250,7 +2251,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -2267,7 +2268,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -2284,7 +2285,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -2301,7 +2302,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -2318,7 +2319,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -2335,7 +2336,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -2352,7 +2353,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="6:11" x14ac:dyDescent="0.45">
       <c r="F33" s="3"/>
       <c r="G33" s="3">
         <v>62</v>
@@ -2364,7 +2365,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="6:11" x14ac:dyDescent="0.45">
       <c r="F34" s="3"/>
       <c r="G34" s="3">
         <v>64</v>
@@ -2376,7 +2377,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="6:11" x14ac:dyDescent="0.45">
       <c r="F35" s="3"/>
       <c r="G35" s="3">
         <v>66</v>
@@ -2388,7 +2389,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="6:11" x14ac:dyDescent="0.45">
       <c r="F36" s="3"/>
       <c r="G36" s="3">
         <v>68</v>
@@ -2400,7 +2401,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="6:11" x14ac:dyDescent="0.45">
       <c r="F37" s="3"/>
       <c r="G37" s="3">
         <v>70</v>
@@ -2412,7 +2413,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="6:11" x14ac:dyDescent="0.45">
       <c r="F38" s="3"/>
       <c r="G38" s="3">
         <v>72</v>
@@ -2424,7 +2425,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="6:11" x14ac:dyDescent="0.45">
       <c r="F39" s="3"/>
       <c r="G39" s="3">
         <v>74</v>
@@ -2436,7 +2437,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="6:11" x14ac:dyDescent="0.45">
       <c r="F40" s="3"/>
       <c r="G40" s="3">
         <v>76</v>
@@ -2448,7 +2449,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="6:11" x14ac:dyDescent="0.45">
       <c r="F41" s="3"/>
       <c r="G41" s="3">
         <v>78</v>
@@ -2460,7 +2461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="6:11" x14ac:dyDescent="0.45">
       <c r="F42" s="3"/>
       <c r="G42" s="3">
         <v>80</v>
@@ -2472,2712 +2473,2712 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="6:11" x14ac:dyDescent="0.45">
       <c r="F43" s="3"/>
       <c r="G43" s="6"/>
       <c r="H43" s="7"/>
     </row>
-    <row r="44" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="6:11" x14ac:dyDescent="0.45">
       <c r="F44" s="3"/>
       <c r="G44" s="6"/>
       <c r="H44" s="7"/>
     </row>
-    <row r="45" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="6:11" x14ac:dyDescent="0.45">
       <c r="F45" s="3"/>
       <c r="G45" s="6"/>
       <c r="H45" s="7"/>
     </row>
-    <row r="46" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="6:11" x14ac:dyDescent="0.45">
       <c r="F46" s="3"/>
       <c r="G46" s="6"/>
       <c r="H46" s="7"/>
     </row>
-    <row r="47" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="6:11" x14ac:dyDescent="0.45">
       <c r="F47" s="3"/>
       <c r="G47" s="6"/>
       <c r="H47" s="7"/>
     </row>
-    <row r="48" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="6:11" x14ac:dyDescent="0.45">
       <c r="F48" s="3"/>
       <c r="G48" s="6"/>
       <c r="H48" s="7"/>
     </row>
-    <row r="49" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F49" s="3"/>
       <c r="G49" s="6"/>
       <c r="H49" s="7"/>
     </row>
-    <row r="50" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F50" s="3"/>
       <c r="G50" s="6"/>
       <c r="H50" s="7"/>
     </row>
-    <row r="51" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F51" s="3"/>
       <c r="G51" s="6"/>
       <c r="H51" s="7"/>
     </row>
-    <row r="52" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F52" s="3"/>
       <c r="G52" s="6"/>
       <c r="H52" s="7"/>
     </row>
-    <row r="53" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F53" s="3"/>
       <c r="G53" s="6"/>
       <c r="H53" s="7"/>
     </row>
-    <row r="54" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F54" s="3"/>
       <c r="G54" s="8"/>
       <c r="H54" s="7"/>
     </row>
-    <row r="55" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F55" s="3"/>
       <c r="G55" s="8"/>
       <c r="H55" s="7"/>
     </row>
-    <row r="56" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F56" s="3"/>
       <c r="G56" s="8"/>
       <c r="H56" s="7"/>
     </row>
-    <row r="57" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F57" s="3"/>
       <c r="G57" s="8"/>
       <c r="H57" s="7"/>
     </row>
-    <row r="58" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F58" s="3"/>
       <c r="G58" s="8"/>
       <c r="H58" s="7"/>
     </row>
-    <row r="59" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F59" s="3"/>
       <c r="G59" s="8"/>
       <c r="H59" s="7"/>
     </row>
-    <row r="60" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F60" s="3"/>
       <c r="G60" s="8"/>
       <c r="H60" s="7"/>
     </row>
-    <row r="61" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F61" s="3"/>
       <c r="G61" s="8"/>
       <c r="H61" s="7"/>
     </row>
-    <row r="62" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F62" s="3"/>
       <c r="G62" s="8"/>
       <c r="H62" s="7"/>
     </row>
-    <row r="63" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F63" s="3"/>
       <c r="G63" s="8"/>
       <c r="H63" s="7"/>
     </row>
-    <row r="64" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F64" s="3"/>
       <c r="G64" s="8"/>
       <c r="H64" s="7"/>
     </row>
-    <row r="65" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F65" s="3"/>
       <c r="G65" s="8"/>
       <c r="H65" s="7"/>
     </row>
-    <row r="66" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F66" s="3"/>
       <c r="G66" s="8"/>
       <c r="H66" s="7"/>
     </row>
-    <row r="67" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F67" s="3"/>
       <c r="G67" s="8"/>
       <c r="H67" s="7"/>
     </row>
-    <row r="68" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F68" s="3"/>
       <c r="G68" s="8"/>
       <c r="H68" s="7"/>
     </row>
-    <row r="69" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F69" s="3"/>
       <c r="G69" s="8"/>
       <c r="H69" s="7"/>
     </row>
-    <row r="70" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F70" s="3"/>
       <c r="G70" s="8"/>
       <c r="H70" s="7"/>
     </row>
-    <row r="71" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F71" s="3"/>
       <c r="G71" s="8"/>
       <c r="H71" s="7"/>
     </row>
-    <row r="72" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F72" s="3"/>
       <c r="G72" s="8"/>
       <c r="H72" s="7"/>
     </row>
-    <row r="73" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F73" s="3"/>
       <c r="G73" s="8"/>
       <c r="H73" s="7"/>
     </row>
-    <row r="74" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F74" s="3"/>
       <c r="G74" s="8"/>
       <c r="H74" s="7"/>
     </row>
-    <row r="75" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F75" s="3"/>
       <c r="G75" s="8"/>
       <c r="H75" s="7"/>
     </row>
-    <row r="76" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F76" s="3"/>
       <c r="G76" s="8"/>
       <c r="H76" s="7"/>
     </row>
-    <row r="77" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F77" s="3"/>
       <c r="G77" s="8"/>
       <c r="H77" s="7"/>
     </row>
-    <row r="78" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F78" s="3"/>
       <c r="G78" s="8"/>
       <c r="H78" s="7"/>
     </row>
-    <row r="79" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F79" s="3"/>
       <c r="G79" s="8"/>
       <c r="H79" s="7"/>
     </row>
-    <row r="80" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F80" s="3"/>
       <c r="G80" s="8"/>
       <c r="H80" s="7"/>
     </row>
-    <row r="81" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F81" s="3"/>
       <c r="G81" s="8"/>
       <c r="H81" s="7"/>
     </row>
-    <row r="82" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F82" s="3"/>
       <c r="G82" s="8"/>
       <c r="H82" s="7"/>
     </row>
-    <row r="83" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F83" s="3"/>
       <c r="G83" s="8"/>
       <c r="H83" s="7"/>
     </row>
-    <row r="84" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F84" s="3"/>
       <c r="G84" s="8"/>
       <c r="H84" s="7"/>
     </row>
-    <row r="85" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F85" s="3"/>
       <c r="G85" s="8"/>
       <c r="H85" s="7"/>
     </row>
-    <row r="86" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F86" s="3"/>
       <c r="G86" s="8"/>
       <c r="H86" s="7"/>
     </row>
-    <row r="87" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F87" s="3"/>
       <c r="G87" s="8"/>
       <c r="H87" s="7"/>
     </row>
-    <row r="88" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F88" s="3"/>
       <c r="G88" s="8"/>
       <c r="H88" s="7"/>
     </row>
-    <row r="89" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F89" s="3"/>
       <c r="G89" s="8"/>
       <c r="H89" s="7"/>
     </row>
-    <row r="90" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F90" s="3"/>
       <c r="G90" s="8"/>
       <c r="H90" s="7"/>
     </row>
-    <row r="91" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F91" s="3"/>
       <c r="G91" s="8"/>
       <c r="H91" s="7"/>
     </row>
-    <row r="92" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F92" s="3"/>
       <c r="G92" s="8"/>
       <c r="H92" s="7"/>
     </row>
-    <row r="93" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F93" s="3"/>
       <c r="G93" s="8"/>
       <c r="H93" s="7"/>
     </row>
-    <row r="94" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F94" s="3"/>
       <c r="G94" s="8"/>
       <c r="H94" s="7"/>
     </row>
-    <row r="95" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F95" s="3"/>
       <c r="G95" s="8"/>
       <c r="H95" s="7"/>
     </row>
-    <row r="96" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F96" s="3"/>
       <c r="G96" s="8"/>
       <c r="H96" s="7"/>
     </row>
-    <row r="97" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F97" s="3"/>
       <c r="G97" s="8"/>
       <c r="H97" s="7"/>
     </row>
-    <row r="98" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F98" s="3"/>
       <c r="G98" s="8"/>
       <c r="H98" s="7"/>
     </row>
-    <row r="99" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F99" s="3"/>
       <c r="G99" s="8"/>
       <c r="H99" s="7"/>
     </row>
-    <row r="100" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F100" s="3"/>
       <c r="G100" s="8"/>
       <c r="H100" s="7"/>
     </row>
-    <row r="101" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F101" s="3"/>
       <c r="G101" s="8"/>
       <c r="H101" s="7"/>
     </row>
-    <row r="102" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F102" s="3"/>
       <c r="G102" s="8"/>
       <c r="H102" s="7"/>
     </row>
-    <row r="103" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F103" s="3"/>
       <c r="G103" s="8"/>
       <c r="H103" s="7"/>
     </row>
-    <row r="104" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F104" s="3"/>
       <c r="G104" s="8"/>
       <c r="H104" s="7"/>
     </row>
-    <row r="105" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F105" s="3"/>
       <c r="G105" s="8"/>
       <c r="H105" s="7"/>
     </row>
-    <row r="106" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F106" s="3"/>
       <c r="G106" s="8"/>
       <c r="H106" s="7"/>
     </row>
-    <row r="107" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F107" s="3"/>
       <c r="G107" s="8"/>
       <c r="H107" s="7"/>
     </row>
-    <row r="108" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F108" s="3"/>
       <c r="G108" s="8"/>
       <c r="H108" s="7"/>
     </row>
-    <row r="109" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F109" s="3"/>
       <c r="G109" s="8"/>
       <c r="H109" s="7"/>
     </row>
-    <row r="110" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F110" s="3"/>
       <c r="G110" s="8"/>
       <c r="H110" s="7"/>
     </row>
-    <row r="111" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F111" s="3"/>
       <c r="G111" s="8"/>
       <c r="H111" s="7"/>
     </row>
-    <row r="112" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F112" s="3"/>
       <c r="G112" s="8"/>
       <c r="H112" s="7"/>
     </row>
-    <row r="113" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F113" s="3"/>
       <c r="G113" s="8"/>
       <c r="H113" s="7"/>
     </row>
-    <row r="114" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F114" s="3"/>
       <c r="G114" s="8"/>
       <c r="H114" s="7"/>
     </row>
-    <row r="115" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F115" s="3"/>
       <c r="G115" s="8"/>
       <c r="H115" s="7"/>
     </row>
-    <row r="116" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F116" s="3"/>
       <c r="G116" s="8"/>
       <c r="H116" s="7"/>
     </row>
-    <row r="117" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F117" s="3"/>
       <c r="G117" s="8"/>
       <c r="H117" s="7"/>
     </row>
-    <row r="118" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F118" s="3"/>
       <c r="G118" s="8"/>
       <c r="H118" s="7"/>
     </row>
-    <row r="119" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F119" s="3"/>
       <c r="G119" s="8"/>
       <c r="H119" s="7"/>
     </row>
-    <row r="120" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F120" s="3"/>
       <c r="G120" s="8"/>
       <c r="H120" s="7"/>
     </row>
-    <row r="121" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F121" s="3"/>
       <c r="G121" s="8"/>
       <c r="H121" s="7"/>
     </row>
-    <row r="122" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F122" s="3"/>
       <c r="G122" s="8"/>
       <c r="H122" s="7"/>
     </row>
-    <row r="123" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F123" s="3"/>
       <c r="G123" s="8"/>
       <c r="H123" s="7"/>
     </row>
-    <row r="124" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F124" s="3"/>
       <c r="G124" s="8"/>
       <c r="H124" s="7"/>
     </row>
-    <row r="125" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F125" s="3"/>
       <c r="G125" s="8"/>
       <c r="H125" s="7"/>
     </row>
-    <row r="126" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F126" s="3"/>
       <c r="G126" s="8"/>
       <c r="H126" s="7"/>
     </row>
-    <row r="127" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F127" s="3"/>
       <c r="G127" s="8"/>
       <c r="H127" s="7"/>
     </row>
-    <row r="128" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F128" s="3"/>
       <c r="G128" s="8"/>
       <c r="H128" s="7"/>
     </row>
-    <row r="129" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F129" s="3"/>
       <c r="G129" s="8"/>
       <c r="H129" s="7"/>
     </row>
-    <row r="130" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F130" s="3"/>
       <c r="G130" s="8"/>
       <c r="H130" s="7"/>
     </row>
-    <row r="131" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F131" s="3"/>
       <c r="G131" s="8"/>
       <c r="H131" s="7"/>
     </row>
-    <row r="132" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F132" s="3"/>
       <c r="G132" s="8"/>
       <c r="H132" s="7"/>
     </row>
-    <row r="133" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F133" s="3"/>
       <c r="G133" s="8"/>
       <c r="H133" s="7"/>
     </row>
-    <row r="134" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F134" s="3"/>
       <c r="G134" s="8"/>
       <c r="H134" s="7"/>
     </row>
-    <row r="135" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F135" s="3"/>
       <c r="G135" s="8"/>
       <c r="H135" s="7"/>
     </row>
-    <row r="136" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F136" s="3"/>
       <c r="G136" s="8"/>
       <c r="H136" s="7"/>
     </row>
-    <row r="137" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F137" s="3"/>
       <c r="G137" s="8"/>
       <c r="H137" s="7"/>
     </row>
-    <row r="138" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F138" s="3"/>
       <c r="G138" s="8"/>
       <c r="H138" s="7"/>
     </row>
-    <row r="139" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F139" s="3"/>
       <c r="G139" s="8"/>
       <c r="H139" s="7"/>
     </row>
-    <row r="140" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F140" s="3"/>
       <c r="G140" s="8"/>
       <c r="H140" s="7"/>
     </row>
-    <row r="141" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F141" s="3"/>
       <c r="G141" s="8"/>
       <c r="H141" s="7"/>
     </row>
-    <row r="142" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F142" s="3"/>
       <c r="G142" s="8"/>
       <c r="H142" s="7"/>
     </row>
-    <row r="143" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F143" s="3"/>
       <c r="G143" s="8"/>
       <c r="H143" s="7"/>
     </row>
-    <row r="144" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F144" s="3"/>
       <c r="G144" s="8"/>
       <c r="H144" s="7"/>
     </row>
-    <row r="145" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F145" s="3"/>
       <c r="G145" s="8"/>
       <c r="H145" s="7"/>
     </row>
-    <row r="146" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F146" s="3"/>
       <c r="G146" s="8"/>
       <c r="H146" s="7"/>
     </row>
-    <row r="147" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F147" s="3"/>
       <c r="G147" s="8"/>
       <c r="H147" s="7"/>
     </row>
-    <row r="148" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F148" s="3"/>
       <c r="G148" s="8"/>
       <c r="H148" s="7"/>
     </row>
-    <row r="149" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F149" s="3"/>
       <c r="G149" s="8"/>
       <c r="H149" s="7"/>
     </row>
-    <row r="150" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F150" s="3"/>
       <c r="G150" s="8"/>
       <c r="H150" s="7"/>
     </row>
-    <row r="151" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F151" s="3"/>
       <c r="G151" s="8"/>
       <c r="H151" s="7"/>
     </row>
-    <row r="152" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F152" s="3"/>
       <c r="G152" s="8"/>
       <c r="H152" s="7"/>
     </row>
-    <row r="153" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F153" s="3"/>
       <c r="G153" s="8"/>
       <c r="H153" s="7"/>
     </row>
-    <row r="154" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F154" s="3"/>
       <c r="G154" s="8"/>
       <c r="H154" s="7"/>
     </row>
-    <row r="155" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F155" s="3"/>
       <c r="G155" s="8"/>
       <c r="H155" s="7"/>
     </row>
-    <row r="156" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F156" s="3"/>
       <c r="G156" s="8"/>
       <c r="H156" s="7"/>
     </row>
-    <row r="157" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F157" s="3"/>
       <c r="G157" s="8"/>
       <c r="H157" s="7"/>
     </row>
-    <row r="158" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F158" s="3"/>
       <c r="G158" s="8"/>
       <c r="H158" s="7"/>
     </row>
-    <row r="159" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F159" s="3"/>
       <c r="G159" s="8"/>
       <c r="H159" s="7"/>
     </row>
-    <row r="160" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F160" s="3"/>
       <c r="G160" s="8"/>
       <c r="H160" s="7"/>
     </row>
-    <row r="161" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F161" s="3"/>
       <c r="G161" s="8"/>
       <c r="H161" s="7"/>
     </row>
-    <row r="162" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F162" s="3"/>
       <c r="G162" s="8"/>
       <c r="H162" s="7"/>
     </row>
-    <row r="163" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F163" s="3"/>
       <c r="G163" s="8"/>
       <c r="H163" s="7"/>
     </row>
-    <row r="164" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F164" s="3"/>
       <c r="G164" s="8"/>
       <c r="H164" s="7"/>
     </row>
-    <row r="165" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F165" s="3"/>
       <c r="G165" s="8"/>
       <c r="H165" s="7"/>
     </row>
-    <row r="166" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F166" s="3"/>
       <c r="G166" s="8"/>
       <c r="H166" s="7"/>
     </row>
-    <row r="167" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F167" s="3"/>
       <c r="G167" s="8"/>
       <c r="H167" s="7"/>
     </row>
-    <row r="168" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F168" s="3"/>
       <c r="G168" s="8"/>
       <c r="H168" s="7"/>
     </row>
-    <row r="169" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F169" s="3"/>
       <c r="G169" s="8"/>
       <c r="H169" s="7"/>
     </row>
-    <row r="170" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F170" s="3"/>
       <c r="G170" s="8"/>
       <c r="H170" s="7"/>
     </row>
-    <row r="171" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F171" s="3"/>
       <c r="G171" s="8"/>
       <c r="H171" s="7"/>
     </row>
-    <row r="172" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F172" s="3"/>
       <c r="G172" s="8"/>
       <c r="H172" s="7"/>
     </row>
-    <row r="173" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F173" s="3"/>
       <c r="G173" s="8"/>
       <c r="H173" s="7"/>
     </row>
-    <row r="174" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F174" s="3"/>
       <c r="G174" s="8"/>
       <c r="H174" s="7"/>
     </row>
-    <row r="175" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F175" s="3"/>
       <c r="G175" s="8"/>
       <c r="H175" s="7"/>
     </row>
-    <row r="176" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F176" s="3"/>
       <c r="G176" s="8"/>
       <c r="H176" s="7"/>
     </row>
-    <row r="177" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F177" s="3"/>
       <c r="G177" s="8"/>
       <c r="H177" s="7"/>
     </row>
-    <row r="178" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F178" s="3"/>
       <c r="G178" s="8"/>
       <c r="H178" s="7"/>
     </row>
-    <row r="179" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F179" s="3"/>
       <c r="G179" s="8"/>
       <c r="H179" s="7"/>
     </row>
-    <row r="180" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F180" s="3"/>
       <c r="G180" s="8"/>
       <c r="H180" s="7"/>
     </row>
-    <row r="181" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F181" s="3"/>
       <c r="G181" s="8"/>
       <c r="H181" s="7"/>
     </row>
-    <row r="182" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F182" s="3"/>
       <c r="G182" s="8"/>
       <c r="H182" s="7"/>
     </row>
-    <row r="183" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F183" s="3"/>
       <c r="G183" s="8"/>
       <c r="H183" s="7"/>
     </row>
-    <row r="184" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F184" s="3"/>
       <c r="G184" s="8"/>
       <c r="H184" s="7"/>
     </row>
-    <row r="185" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F185" s="3"/>
       <c r="G185" s="8"/>
       <c r="H185" s="7"/>
     </row>
-    <row r="186" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F186" s="3"/>
       <c r="G186" s="8"/>
       <c r="H186" s="7"/>
     </row>
-    <row r="187" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F187" s="3"/>
       <c r="G187" s="8"/>
       <c r="H187" s="7"/>
     </row>
-    <row r="188" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F188" s="3"/>
       <c r="G188" s="8"/>
       <c r="H188" s="7"/>
     </row>
-    <row r="189" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F189" s="3"/>
       <c r="G189" s="8"/>
       <c r="H189" s="7"/>
     </row>
-    <row r="190" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F190" s="3"/>
       <c r="G190" s="8"/>
       <c r="H190" s="7"/>
     </row>
-    <row r="191" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F191" s="3"/>
       <c r="G191" s="8"/>
       <c r="H191" s="7"/>
     </row>
-    <row r="192" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F192" s="3"/>
       <c r="G192" s="8"/>
       <c r="H192" s="7"/>
     </row>
-    <row r="193" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F193" s="3"/>
       <c r="G193" s="8"/>
       <c r="H193" s="7"/>
     </row>
-    <row r="194" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F194" s="3"/>
       <c r="G194" s="8"/>
       <c r="H194" s="7"/>
     </row>
-    <row r="195" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F195" s="3"/>
       <c r="G195" s="8"/>
       <c r="H195" s="7"/>
     </row>
-    <row r="196" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F196" s="3"/>
       <c r="G196" s="8"/>
       <c r="H196" s="7"/>
     </row>
-    <row r="197" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F197" s="3"/>
       <c r="G197" s="8"/>
       <c r="H197" s="7"/>
     </row>
-    <row r="198" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F198" s="3"/>
       <c r="G198" s="8"/>
       <c r="H198" s="7"/>
     </row>
-    <row r="199" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F199" s="3"/>
       <c r="G199" s="8"/>
       <c r="H199" s="7"/>
     </row>
-    <row r="200" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F200" s="3"/>
       <c r="G200" s="8"/>
       <c r="H200" s="7"/>
     </row>
-    <row r="201" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F201" s="3"/>
       <c r="G201" s="8"/>
       <c r="H201" s="7"/>
     </row>
-    <row r="202" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F202" s="3"/>
       <c r="G202" s="8"/>
       <c r="H202" s="7"/>
     </row>
-    <row r="203" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F203" s="3"/>
       <c r="G203" s="8"/>
       <c r="H203" s="7"/>
     </row>
-    <row r="204" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F204" s="3"/>
       <c r="G204" s="8"/>
       <c r="H204" s="7"/>
     </row>
-    <row r="205" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F205" s="3"/>
       <c r="G205" s="8"/>
       <c r="H205" s="7"/>
     </row>
-    <row r="206" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F206" s="3"/>
       <c r="G206" s="8"/>
       <c r="H206" s="7"/>
     </row>
-    <row r="207" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F207" s="3"/>
       <c r="G207" s="8"/>
       <c r="H207" s="7"/>
     </row>
-    <row r="208" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F208" s="3"/>
       <c r="G208" s="8"/>
       <c r="H208" s="7"/>
     </row>
-    <row r="209" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F209" s="3"/>
       <c r="G209" s="8"/>
       <c r="H209" s="7"/>
     </row>
-    <row r="210" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F210" s="3"/>
       <c r="G210" s="8"/>
       <c r="H210" s="7"/>
     </row>
-    <row r="211" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F211" s="3"/>
       <c r="G211" s="8"/>
       <c r="H211" s="7"/>
     </row>
-    <row r="212" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F212" s="3"/>
       <c r="G212" s="8"/>
       <c r="H212" s="7"/>
     </row>
-    <row r="213" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F213" s="3"/>
       <c r="G213" s="8"/>
       <c r="H213" s="7"/>
     </row>
-    <row r="214" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F214" s="3"/>
       <c r="G214" s="8"/>
       <c r="H214" s="7"/>
     </row>
-    <row r="215" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F215" s="3"/>
       <c r="G215" s="8"/>
       <c r="H215" s="7"/>
     </row>
-    <row r="216" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F216" s="3"/>
       <c r="G216" s="8"/>
       <c r="H216" s="7"/>
     </row>
-    <row r="217" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F217" s="3"/>
       <c r="G217" s="8"/>
       <c r="H217" s="7"/>
     </row>
-    <row r="218" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F218" s="3"/>
       <c r="G218" s="8"/>
       <c r="H218" s="7"/>
     </row>
-    <row r="219" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F219" s="3"/>
       <c r="G219" s="8"/>
       <c r="H219" s="7"/>
     </row>
-    <row r="220" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="220" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F220" s="3"/>
       <c r="G220" s="8"/>
       <c r="H220" s="7"/>
     </row>
-    <row r="221" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F221" s="3"/>
       <c r="G221" s="8"/>
       <c r="H221" s="7"/>
     </row>
-    <row r="222" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F222" s="3"/>
       <c r="G222" s="8"/>
       <c r="H222" s="7"/>
     </row>
-    <row r="223" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F223" s="3"/>
       <c r="G223" s="8"/>
       <c r="H223" s="7"/>
     </row>
-    <row r="224" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F224" s="3"/>
       <c r="G224" s="8"/>
       <c r="H224" s="7"/>
     </row>
-    <row r="225" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F225" s="3"/>
       <c r="G225" s="8"/>
       <c r="H225" s="7"/>
     </row>
-    <row r="226" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F226" s="3"/>
       <c r="G226" s="8"/>
       <c r="H226" s="7"/>
     </row>
-    <row r="227" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F227" s="3"/>
       <c r="G227" s="8"/>
       <c r="H227" s="7"/>
     </row>
-    <row r="228" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="228" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F228" s="3"/>
       <c r="G228" s="8"/>
       <c r="H228" s="7"/>
     </row>
-    <row r="229" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="229" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F229" s="3"/>
       <c r="G229" s="8"/>
       <c r="H229" s="7"/>
     </row>
-    <row r="230" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="230" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F230" s="3"/>
       <c r="G230" s="8"/>
       <c r="H230" s="7"/>
     </row>
-    <row r="231" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="231" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F231" s="3"/>
       <c r="G231" s="8"/>
       <c r="H231" s="7"/>
     </row>
-    <row r="232" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="232" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F232" s="3"/>
       <c r="G232" s="8"/>
       <c r="H232" s="7"/>
     </row>
-    <row r="233" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="233" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F233" s="3"/>
       <c r="G233" s="8"/>
       <c r="H233" s="7"/>
     </row>
-    <row r="234" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="234" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F234" s="3"/>
       <c r="G234" s="8"/>
       <c r="H234" s="7"/>
     </row>
-    <row r="235" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="235" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F235" s="3"/>
       <c r="G235" s="8"/>
       <c r="H235" s="7"/>
     </row>
-    <row r="236" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="236" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F236" s="3"/>
       <c r="G236" s="8"/>
       <c r="H236" s="7"/>
     </row>
-    <row r="237" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="237" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F237" s="3"/>
       <c r="G237" s="8"/>
       <c r="H237" s="7"/>
     </row>
-    <row r="238" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="238" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F238" s="3"/>
       <c r="G238" s="8"/>
       <c r="H238" s="7"/>
     </row>
-    <row r="239" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="239" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F239" s="3"/>
       <c r="G239" s="8"/>
       <c r="H239" s="7"/>
     </row>
-    <row r="240" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="240" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F240" s="3"/>
       <c r="G240" s="8"/>
       <c r="H240" s="7"/>
     </row>
-    <row r="241" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="241" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F241" s="3"/>
       <c r="G241" s="8"/>
       <c r="H241" s="7"/>
     </row>
-    <row r="242" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="242" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F242" s="3"/>
       <c r="G242" s="8"/>
       <c r="H242" s="7"/>
     </row>
-    <row r="243" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="243" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F243" s="3"/>
       <c r="G243" s="8"/>
       <c r="H243" s="7"/>
     </row>
-    <row r="244" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="244" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F244" s="3"/>
       <c r="G244" s="8"/>
       <c r="H244" s="7"/>
     </row>
-    <row r="245" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="245" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F245" s="3"/>
       <c r="G245" s="8"/>
       <c r="H245" s="7"/>
     </row>
-    <row r="246" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="246" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F246" s="3"/>
       <c r="G246" s="8"/>
       <c r="H246" s="7"/>
     </row>
-    <row r="247" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="247" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F247" s="3"/>
       <c r="G247" s="8"/>
       <c r="H247" s="7"/>
     </row>
-    <row r="248" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F248" s="3"/>
       <c r="G248" s="8"/>
       <c r="H248" s="7"/>
     </row>
-    <row r="249" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="249" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F249" s="3"/>
       <c r="G249" s="8"/>
       <c r="H249" s="7"/>
     </row>
-    <row r="250" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="250" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F250" s="3"/>
       <c r="G250" s="8"/>
       <c r="H250" s="7"/>
     </row>
-    <row r="251" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F251" s="3"/>
       <c r="G251" s="8"/>
       <c r="H251" s="7"/>
     </row>
-    <row r="252" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="252" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F252" s="3"/>
       <c r="G252" s="8"/>
       <c r="H252" s="7"/>
     </row>
-    <row r="253" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="253" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F253" s="3"/>
       <c r="G253" s="8"/>
       <c r="H253" s="7"/>
     </row>
-    <row r="254" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="254" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F254" s="3"/>
       <c r="G254" s="8"/>
       <c r="H254" s="7"/>
     </row>
-    <row r="255" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="255" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F255" s="3"/>
       <c r="G255" s="8"/>
       <c r="H255" s="7"/>
     </row>
-    <row r="256" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="256" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F256" s="3"/>
       <c r="G256" s="8"/>
       <c r="H256" s="7"/>
     </row>
-    <row r="257" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="257" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F257" s="3"/>
       <c r="G257" s="8"/>
       <c r="H257" s="7"/>
     </row>
-    <row r="258" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="258" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F258" s="3"/>
       <c r="G258" s="8"/>
       <c r="H258" s="7"/>
     </row>
-    <row r="259" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="259" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F259" s="3"/>
       <c r="G259" s="8"/>
       <c r="H259" s="7"/>
     </row>
-    <row r="260" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="260" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F260" s="3"/>
       <c r="G260" s="8"/>
       <c r="H260" s="7"/>
     </row>
-    <row r="261" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="261" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F261" s="3"/>
       <c r="G261" s="8"/>
       <c r="H261" s="7"/>
     </row>
-    <row r="262" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="262" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F262" s="3"/>
       <c r="G262" s="8"/>
       <c r="H262" s="7"/>
     </row>
-    <row r="263" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="263" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F263" s="3"/>
       <c r="G263" s="8"/>
       <c r="H263" s="7"/>
     </row>
-    <row r="264" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="264" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F264" s="3"/>
       <c r="G264" s="8"/>
       <c r="H264" s="7"/>
     </row>
-    <row r="265" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="265" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F265" s="3"/>
       <c r="G265" s="8"/>
       <c r="H265" s="7"/>
     </row>
-    <row r="266" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="266" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F266" s="3"/>
       <c r="G266" s="8"/>
       <c r="H266" s="7"/>
     </row>
-    <row r="267" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="267" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F267" s="3"/>
       <c r="G267" s="8"/>
       <c r="H267" s="7"/>
     </row>
-    <row r="268" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="268" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F268" s="3"/>
       <c r="G268" s="8"/>
       <c r="H268" s="7"/>
     </row>
-    <row r="269" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="269" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F269" s="3"/>
       <c r="G269" s="8"/>
       <c r="H269" s="7"/>
     </row>
-    <row r="270" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="270" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F270" s="3"/>
       <c r="G270" s="8"/>
       <c r="H270" s="7"/>
     </row>
-    <row r="271" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="271" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F271" s="3"/>
       <c r="G271" s="8"/>
       <c r="H271" s="7"/>
     </row>
-    <row r="272" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="272" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F272" s="3"/>
       <c r="G272" s="8"/>
       <c r="H272" s="7"/>
     </row>
-    <row r="273" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="273" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F273" s="3"/>
       <c r="G273" s="8"/>
       <c r="H273" s="7"/>
     </row>
-    <row r="274" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="274" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F274" s="3"/>
       <c r="G274" s="8"/>
       <c r="H274" s="7"/>
     </row>
-    <row r="275" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="275" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F275" s="3"/>
       <c r="G275" s="8"/>
       <c r="H275" s="7"/>
     </row>
-    <row r="276" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="276" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F276" s="3"/>
       <c r="G276" s="8"/>
       <c r="H276" s="7"/>
     </row>
-    <row r="277" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="277" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F277" s="3"/>
       <c r="G277" s="8"/>
       <c r="H277" s="7"/>
     </row>
-    <row r="278" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="278" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F278" s="3"/>
       <c r="G278" s="8"/>
       <c r="H278" s="7"/>
     </row>
-    <row r="279" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="279" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F279" s="3"/>
       <c r="G279" s="8"/>
       <c r="H279" s="7"/>
     </row>
-    <row r="280" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="280" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F280" s="3"/>
       <c r="G280" s="8"/>
       <c r="H280" s="7"/>
     </row>
-    <row r="281" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="281" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F281" s="3"/>
       <c r="G281" s="8"/>
       <c r="H281" s="7"/>
     </row>
-    <row r="282" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="282" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F282" s="3"/>
       <c r="G282" s="8"/>
       <c r="H282" s="7"/>
     </row>
-    <row r="283" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="283" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F283" s="3"/>
       <c r="G283" s="8"/>
       <c r="H283" s="7"/>
     </row>
-    <row r="284" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="284" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F284" s="3"/>
       <c r="G284" s="8"/>
       <c r="H284" s="7"/>
     </row>
-    <row r="285" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="285" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F285" s="3"/>
       <c r="G285" s="8"/>
       <c r="H285" s="7"/>
     </row>
-    <row r="286" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="286" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F286" s="3"/>
       <c r="G286" s="8"/>
       <c r="H286" s="7"/>
     </row>
-    <row r="287" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="287" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F287" s="3"/>
       <c r="G287" s="8"/>
       <c r="H287" s="7"/>
     </row>
-    <row r="288" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="288" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F288" s="3"/>
       <c r="G288" s="8"/>
       <c r="H288" s="7"/>
     </row>
-    <row r="289" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="289" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F289" s="3"/>
       <c r="G289" s="8"/>
       <c r="H289" s="7"/>
     </row>
-    <row r="290" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="290" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F290" s="3"/>
       <c r="G290" s="8"/>
       <c r="H290" s="7"/>
     </row>
-    <row r="291" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="291" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F291" s="3"/>
       <c r="G291" s="8"/>
       <c r="H291" s="7"/>
     </row>
-    <row r="292" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="292" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F292" s="3"/>
       <c r="G292" s="8"/>
       <c r="H292" s="7"/>
     </row>
-    <row r="293" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="293" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F293" s="3"/>
       <c r="G293" s="8"/>
       <c r="H293" s="7"/>
     </row>
-    <row r="294" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="294" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F294" s="3"/>
       <c r="G294" s="8"/>
       <c r="H294" s="7"/>
     </row>
-    <row r="295" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="295" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F295" s="3"/>
       <c r="G295" s="8"/>
       <c r="H295" s="7"/>
     </row>
-    <row r="296" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="296" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F296" s="3"/>
       <c r="G296" s="8"/>
       <c r="H296" s="7"/>
     </row>
-    <row r="297" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="297" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F297" s="3"/>
       <c r="G297" s="8"/>
       <c r="H297" s="7"/>
     </row>
-    <row r="298" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="298" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F298" s="3"/>
       <c r="G298" s="8"/>
       <c r="H298" s="7"/>
     </row>
-    <row r="299" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="299" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F299" s="3"/>
       <c r="G299" s="8"/>
       <c r="H299" s="7"/>
     </row>
-    <row r="300" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="300" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F300" s="3"/>
       <c r="G300" s="8"/>
       <c r="H300" s="7"/>
     </row>
-    <row r="301" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="301" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F301" s="3"/>
       <c r="G301" s="8"/>
       <c r="H301" s="7"/>
     </row>
-    <row r="302" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="302" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F302" s="3"/>
       <c r="G302" s="8"/>
       <c r="H302" s="7"/>
     </row>
-    <row r="303" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="303" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F303" s="3"/>
       <c r="G303" s="8"/>
       <c r="H303" s="7"/>
     </row>
-    <row r="304" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="304" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F304" s="3"/>
       <c r="G304" s="8"/>
       <c r="H304" s="7"/>
     </row>
-    <row r="305" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="305" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F305" s="3"/>
       <c r="G305" s="8"/>
       <c r="H305" s="7"/>
     </row>
-    <row r="306" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="306" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F306" s="3"/>
       <c r="G306" s="8"/>
       <c r="H306" s="7"/>
     </row>
-    <row r="307" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="307" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F307" s="3"/>
       <c r="G307" s="8"/>
       <c r="H307" s="7"/>
     </row>
-    <row r="308" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="308" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F308" s="3"/>
       <c r="G308" s="8"/>
       <c r="H308" s="7"/>
     </row>
-    <row r="309" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="309" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F309" s="3"/>
       <c r="G309" s="8"/>
       <c r="H309" s="7"/>
     </row>
-    <row r="310" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="310" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F310" s="3"/>
       <c r="G310" s="8"/>
       <c r="H310" s="7"/>
     </row>
-    <row r="311" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="311" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F311" s="3"/>
       <c r="G311" s="8"/>
       <c r="H311" s="7"/>
     </row>
-    <row r="312" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="312" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F312" s="3"/>
       <c r="G312" s="8"/>
       <c r="H312" s="7"/>
     </row>
-    <row r="313" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="313" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F313" s="3"/>
       <c r="G313" s="8"/>
       <c r="H313" s="7"/>
     </row>
-    <row r="314" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="314" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F314" s="3"/>
       <c r="G314" s="8"/>
       <c r="H314" s="7"/>
     </row>
-    <row r="315" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="315" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F315" s="3"/>
       <c r="G315" s="8"/>
       <c r="H315" s="7"/>
     </row>
-    <row r="316" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="316" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F316" s="3"/>
       <c r="G316" s="8"/>
       <c r="H316" s="7"/>
     </row>
-    <row r="317" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="317" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F317" s="3"/>
       <c r="G317" s="8"/>
       <c r="H317" s="7"/>
     </row>
-    <row r="318" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="318" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F318" s="3"/>
       <c r="G318" s="8"/>
       <c r="H318" s="7"/>
     </row>
-    <row r="319" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="319" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F319" s="3"/>
       <c r="G319" s="8"/>
       <c r="H319" s="7"/>
     </row>
-    <row r="320" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="320" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F320" s="3"/>
       <c r="G320" s="8"/>
       <c r="H320" s="7"/>
     </row>
-    <row r="321" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="321" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F321" s="3"/>
       <c r="G321" s="8"/>
       <c r="H321" s="7"/>
     </row>
-    <row r="322" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="322" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F322" s="3"/>
       <c r="G322" s="8"/>
       <c r="H322" s="7"/>
     </row>
-    <row r="323" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="323" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F323" s="3"/>
       <c r="G323" s="8"/>
       <c r="H323" s="7"/>
     </row>
-    <row r="324" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="324" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F324" s="3"/>
       <c r="G324" s="8"/>
       <c r="H324" s="7"/>
     </row>
-    <row r="325" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="325" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F325" s="3"/>
       <c r="G325" s="8"/>
       <c r="H325" s="7"/>
     </row>
-    <row r="326" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="326" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F326" s="3"/>
       <c r="G326" s="8"/>
       <c r="H326" s="7"/>
     </row>
-    <row r="327" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="327" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F327" s="3"/>
       <c r="G327" s="8"/>
       <c r="H327" s="7"/>
     </row>
-    <row r="328" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="328" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F328" s="3"/>
       <c r="G328" s="8"/>
       <c r="H328" s="7"/>
     </row>
-    <row r="329" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="329" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F329" s="3"/>
       <c r="G329" s="8"/>
       <c r="H329" s="7"/>
     </row>
-    <row r="330" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="330" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F330" s="3"/>
       <c r="G330" s="8"/>
       <c r="H330" s="7"/>
     </row>
-    <row r="331" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="331" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F331" s="3"/>
       <c r="G331" s="8"/>
       <c r="H331" s="7"/>
     </row>
-    <row r="332" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="332" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F332" s="3"/>
       <c r="G332" s="8"/>
       <c r="H332" s="7"/>
     </row>
-    <row r="333" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="333" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F333" s="3"/>
       <c r="G333" s="8"/>
       <c r="H333" s="7"/>
     </row>
-    <row r="334" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="334" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F334" s="3"/>
       <c r="G334" s="8"/>
       <c r="H334" s="7"/>
     </row>
-    <row r="335" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="335" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F335" s="3"/>
       <c r="G335" s="8"/>
       <c r="H335" s="7"/>
     </row>
-    <row r="336" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="336" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F336" s="3"/>
       <c r="G336" s="8"/>
       <c r="H336" s="7"/>
     </row>
-    <row r="337" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="337" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F337" s="3"/>
       <c r="G337" s="8"/>
       <c r="H337" s="7"/>
     </row>
-    <row r="338" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="338" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F338" s="3"/>
       <c r="G338" s="8"/>
       <c r="H338" s="7"/>
     </row>
-    <row r="339" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="339" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F339" s="3"/>
       <c r="G339" s="8"/>
       <c r="H339" s="7"/>
     </row>
-    <row r="340" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="340" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F340" s="3"/>
       <c r="G340" s="8"/>
       <c r="H340" s="7"/>
     </row>
-    <row r="341" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="341" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F341" s="3"/>
       <c r="G341" s="8"/>
       <c r="H341" s="7"/>
     </row>
-    <row r="342" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="342" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F342" s="3"/>
       <c r="G342" s="8"/>
       <c r="H342" s="7"/>
     </row>
-    <row r="343" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="343" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F343" s="3"/>
       <c r="G343" s="8"/>
       <c r="H343" s="7"/>
     </row>
-    <row r="344" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="344" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F344" s="3"/>
       <c r="G344" s="8"/>
       <c r="H344" s="7"/>
     </row>
-    <row r="345" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="345" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F345" s="3"/>
       <c r="G345" s="8"/>
       <c r="H345" s="7"/>
     </row>
-    <row r="346" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="346" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F346" s="3"/>
       <c r="G346" s="8"/>
       <c r="H346" s="7"/>
     </row>
-    <row r="347" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="347" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F347" s="3"/>
       <c r="G347" s="8"/>
       <c r="H347" s="7"/>
     </row>
-    <row r="348" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="348" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F348" s="3"/>
       <c r="G348" s="8"/>
       <c r="H348" s="7"/>
     </row>
-    <row r="349" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="349" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F349" s="3"/>
       <c r="G349" s="8"/>
       <c r="H349" s="7"/>
     </row>
-    <row r="350" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="350" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F350" s="3"/>
       <c r="G350" s="8"/>
       <c r="H350" s="7"/>
     </row>
-    <row r="351" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="351" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F351" s="3"/>
       <c r="G351" s="8"/>
       <c r="H351" s="7"/>
     </row>
-    <row r="352" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="352" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F352" s="3"/>
       <c r="G352" s="8"/>
       <c r="H352" s="7"/>
     </row>
-    <row r="353" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="353" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F353" s="3"/>
       <c r="G353" s="8"/>
       <c r="H353" s="7"/>
     </row>
-    <row r="354" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="354" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F354" s="3"/>
       <c r="G354" s="8"/>
       <c r="H354" s="7"/>
     </row>
-    <row r="355" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="355" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F355" s="3"/>
       <c r="G355" s="8"/>
       <c r="H355" s="7"/>
     </row>
-    <row r="356" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="356" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F356" s="3"/>
       <c r="G356" s="8"/>
       <c r="H356" s="7"/>
     </row>
-    <row r="357" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="357" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F357" s="3"/>
       <c r="G357" s="8"/>
       <c r="H357" s="7"/>
     </row>
-    <row r="358" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="358" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F358" s="3"/>
       <c r="G358" s="8"/>
       <c r="H358" s="7"/>
     </row>
-    <row r="359" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="359" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F359" s="3"/>
       <c r="G359" s="8"/>
       <c r="H359" s="7"/>
     </row>
-    <row r="360" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="360" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F360" s="3"/>
       <c r="G360" s="8"/>
       <c r="H360" s="7"/>
     </row>
-    <row r="361" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="361" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F361" s="3"/>
       <c r="G361" s="8"/>
       <c r="H361" s="7"/>
     </row>
-    <row r="362" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="362" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F362" s="3"/>
       <c r="G362" s="8"/>
       <c r="H362" s="7"/>
     </row>
-    <row r="363" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="363" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F363" s="3"/>
       <c r="G363" s="8"/>
       <c r="H363" s="7"/>
     </row>
-    <row r="364" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="364" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F364" s="3"/>
       <c r="G364" s="8"/>
       <c r="H364" s="7"/>
     </row>
-    <row r="365" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="365" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F365" s="3"/>
       <c r="G365" s="8"/>
       <c r="H365" s="7"/>
     </row>
-    <row r="366" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="366" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F366" s="3"/>
       <c r="G366" s="8"/>
       <c r="H366" s="7"/>
     </row>
-    <row r="367" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="367" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F367" s="3"/>
       <c r="G367" s="8"/>
       <c r="H367" s="7"/>
     </row>
-    <row r="368" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="368" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F368" s="3"/>
       <c r="G368" s="8"/>
       <c r="H368" s="7"/>
     </row>
-    <row r="369" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="369" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F369" s="3"/>
       <c r="G369" s="8"/>
       <c r="H369" s="7"/>
     </row>
-    <row r="370" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="370" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F370" s="3"/>
       <c r="G370" s="8"/>
       <c r="H370" s="7"/>
     </row>
-    <row r="371" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="371" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F371" s="3"/>
       <c r="G371" s="8"/>
       <c r="H371" s="7"/>
     </row>
-    <row r="372" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="372" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F372" s="3"/>
       <c r="G372" s="8"/>
       <c r="H372" s="7"/>
     </row>
-    <row r="373" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="373" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F373" s="3"/>
       <c r="G373" s="8"/>
       <c r="H373" s="7"/>
     </row>
-    <row r="374" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="374" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F374" s="3"/>
       <c r="G374" s="8"/>
       <c r="H374" s="7"/>
     </row>
-    <row r="375" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="375" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F375" s="3"/>
       <c r="G375" s="8"/>
       <c r="H375" s="7"/>
     </row>
-    <row r="376" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="376" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F376" s="3"/>
       <c r="G376" s="8"/>
       <c r="H376" s="7"/>
     </row>
-    <row r="377" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="377" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F377" s="3"/>
       <c r="G377" s="8"/>
       <c r="H377" s="7"/>
     </row>
-    <row r="378" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="378" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F378" s="3"/>
       <c r="G378" s="8"/>
       <c r="H378" s="7"/>
     </row>
-    <row r="379" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="379" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F379" s="3"/>
       <c r="G379" s="8"/>
       <c r="H379" s="7"/>
     </row>
-    <row r="380" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="380" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F380" s="3"/>
       <c r="G380" s="8"/>
       <c r="H380" s="7"/>
     </row>
-    <row r="381" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="381" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F381" s="3"/>
       <c r="G381" s="8"/>
       <c r="H381" s="7"/>
     </row>
-    <row r="382" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="382" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F382" s="3"/>
       <c r="G382" s="8"/>
       <c r="H382" s="7"/>
     </row>
-    <row r="383" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="383" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F383" s="3"/>
       <c r="G383" s="8"/>
       <c r="H383" s="7"/>
     </row>
-    <row r="384" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="384" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F384" s="3"/>
       <c r="G384" s="8"/>
       <c r="H384" s="7"/>
     </row>
-    <row r="385" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="385" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F385" s="3"/>
       <c r="G385" s="8"/>
       <c r="H385" s="7"/>
     </row>
-    <row r="386" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="386" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F386" s="3"/>
       <c r="G386" s="8"/>
       <c r="H386" s="7"/>
     </row>
-    <row r="387" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="387" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F387" s="3"/>
       <c r="G387" s="8"/>
       <c r="H387" s="7"/>
     </row>
-    <row r="388" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="388" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F388" s="3"/>
       <c r="G388" s="8"/>
       <c r="H388" s="7"/>
     </row>
-    <row r="389" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="389" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F389" s="3"/>
       <c r="G389" s="8"/>
       <c r="H389" s="7"/>
     </row>
-    <row r="390" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="390" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F390" s="3"/>
       <c r="G390" s="8"/>
       <c r="H390" s="7"/>
     </row>
-    <row r="391" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="391" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F391" s="3"/>
       <c r="G391" s="8"/>
       <c r="H391" s="7"/>
     </row>
-    <row r="392" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="392" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F392" s="3"/>
       <c r="G392" s="8"/>
       <c r="H392" s="7"/>
     </row>
-    <row r="393" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="393" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F393" s="3"/>
       <c r="G393" s="8"/>
       <c r="H393" s="7"/>
     </row>
-    <row r="394" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="394" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F394" s="3"/>
       <c r="G394" s="8"/>
       <c r="H394" s="7"/>
     </row>
-    <row r="395" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="395" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F395" s="3"/>
       <c r="G395" s="8"/>
       <c r="H395" s="7"/>
     </row>
-    <row r="396" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="396" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F396" s="3"/>
       <c r="G396" s="8"/>
       <c r="H396" s="7"/>
     </row>
-    <row r="397" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="397" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F397" s="3"/>
       <c r="G397" s="8"/>
       <c r="H397" s="7"/>
     </row>
-    <row r="398" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="398" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F398" s="3"/>
       <c r="G398" s="8"/>
       <c r="H398" s="7"/>
     </row>
-    <row r="399" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="399" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F399" s="3"/>
       <c r="G399" s="8"/>
       <c r="H399" s="7"/>
     </row>
-    <row r="400" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="400" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F400" s="3"/>
       <c r="G400" s="8"/>
       <c r="H400" s="7"/>
     </row>
-    <row r="401" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="401" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F401" s="3"/>
       <c r="G401" s="8"/>
       <c r="H401" s="7"/>
     </row>
-    <row r="402" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="402" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F402" s="3"/>
       <c r="G402" s="8"/>
       <c r="H402" s="7"/>
     </row>
-    <row r="403" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="403" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F403" s="3"/>
       <c r="G403" s="8"/>
       <c r="H403" s="7"/>
     </row>
-    <row r="404" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="404" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F404" s="3"/>
       <c r="G404" s="8"/>
       <c r="H404" s="7"/>
     </row>
-    <row r="405" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="405" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F405" s="3"/>
       <c r="G405" s="8"/>
       <c r="H405" s="7"/>
     </row>
-    <row r="406" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="406" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F406" s="3"/>
       <c r="G406" s="8"/>
       <c r="H406" s="7"/>
     </row>
-    <row r="407" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="407" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F407" s="3"/>
       <c r="G407" s="8"/>
       <c r="H407" s="7"/>
     </row>
-    <row r="408" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="408" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F408" s="3"/>
       <c r="G408" s="8"/>
       <c r="H408" s="7"/>
     </row>
-    <row r="409" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="409" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F409" s="3"/>
       <c r="G409" s="8"/>
       <c r="H409" s="7"/>
     </row>
-    <row r="410" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="410" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F410" s="3"/>
       <c r="G410" s="8"/>
       <c r="H410" s="7"/>
     </row>
-    <row r="411" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="411" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F411" s="3"/>
       <c r="G411" s="8"/>
       <c r="H411" s="7"/>
     </row>
-    <row r="412" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="412" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F412" s="3"/>
       <c r="G412" s="8"/>
       <c r="H412" s="7"/>
     </row>
-    <row r="413" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="413" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F413" s="3"/>
       <c r="G413" s="8"/>
       <c r="H413" s="7"/>
     </row>
-    <row r="414" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="414" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F414" s="3"/>
       <c r="G414" s="8"/>
       <c r="H414" s="7"/>
     </row>
-    <row r="415" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="415" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F415" s="3"/>
       <c r="G415" s="8"/>
       <c r="H415" s="7"/>
     </row>
-    <row r="416" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="416" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F416" s="3"/>
       <c r="G416" s="8"/>
       <c r="H416" s="7"/>
     </row>
-    <row r="417" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="417" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F417" s="3"/>
       <c r="G417" s="8"/>
       <c r="H417" s="7"/>
     </row>
-    <row r="418" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="418" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F418" s="3"/>
       <c r="G418" s="8"/>
       <c r="H418" s="7"/>
     </row>
-    <row r="419" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="419" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F419" s="3"/>
       <c r="G419" s="8"/>
       <c r="H419" s="7"/>
     </row>
-    <row r="420" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="420" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F420" s="3"/>
       <c r="G420" s="8"/>
       <c r="H420" s="7"/>
     </row>
-    <row r="421" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="421" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F421" s="3"/>
       <c r="G421" s="8"/>
       <c r="H421" s="7"/>
     </row>
-    <row r="422" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="422" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F422" s="3"/>
       <c r="G422" s="8"/>
       <c r="H422" s="7"/>
     </row>
-    <row r="423" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="423" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F423" s="3"/>
       <c r="G423" s="8"/>
       <c r="H423" s="7"/>
     </row>
-    <row r="424" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="424" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F424" s="3"/>
       <c r="G424" s="8"/>
       <c r="H424" s="7"/>
     </row>
-    <row r="425" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="425" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F425" s="3"/>
       <c r="G425" s="8"/>
       <c r="H425" s="7"/>
     </row>
-    <row r="426" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="426" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F426" s="3"/>
       <c r="G426" s="8"/>
       <c r="H426" s="7"/>
     </row>
-    <row r="427" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="427" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F427" s="3"/>
       <c r="G427" s="8"/>
       <c r="H427" s="7"/>
     </row>
-    <row r="428" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="428" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F428" s="3"/>
       <c r="G428" s="8"/>
       <c r="H428" s="7"/>
     </row>
-    <row r="429" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="429" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F429" s="3"/>
       <c r="G429" s="8"/>
       <c r="H429" s="7"/>
     </row>
-    <row r="430" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="430" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F430" s="3"/>
       <c r="G430" s="8"/>
       <c r="H430" s="7"/>
     </row>
-    <row r="431" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="431" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F431" s="3"/>
       <c r="G431" s="8"/>
       <c r="H431" s="7"/>
     </row>
-    <row r="432" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="432" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F432" s="3"/>
       <c r="G432" s="8"/>
       <c r="H432" s="7"/>
     </row>
-    <row r="433" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="433" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F433" s="3"/>
       <c r="G433" s="8"/>
       <c r="H433" s="7"/>
     </row>
-    <row r="434" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="434" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F434" s="3"/>
       <c r="G434" s="8"/>
       <c r="H434" s="7"/>
     </row>
-    <row r="435" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="435" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F435" s="3"/>
       <c r="G435" s="8"/>
       <c r="H435" s="7"/>
     </row>
-    <row r="436" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="436" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F436" s="3"/>
       <c r="G436" s="8"/>
       <c r="H436" s="7"/>
     </row>
-    <row r="437" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="437" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F437" s="3"/>
       <c r="G437" s="8"/>
       <c r="H437" s="7"/>
     </row>
-    <row r="438" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="438" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F438" s="3"/>
       <c r="G438" s="8"/>
       <c r="H438" s="7"/>
     </row>
-    <row r="439" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="439" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F439" s="3"/>
       <c r="G439" s="8"/>
       <c r="H439" s="7"/>
     </row>
-    <row r="440" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="440" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F440" s="3"/>
       <c r="G440" s="8"/>
       <c r="H440" s="7"/>
     </row>
-    <row r="441" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="441" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F441" s="3"/>
       <c r="G441" s="8"/>
       <c r="H441" s="7"/>
     </row>
-    <row r="442" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="442" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F442" s="3"/>
       <c r="G442" s="8"/>
       <c r="H442" s="7"/>
     </row>
-    <row r="443" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="443" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F443" s="3"/>
       <c r="G443" s="8"/>
       <c r="H443" s="7"/>
     </row>
-    <row r="444" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="444" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F444" s="3"/>
       <c r="G444" s="8"/>
       <c r="H444" s="7"/>
     </row>
-    <row r="445" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="445" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F445" s="3"/>
       <c r="G445" s="8"/>
       <c r="H445" s="7"/>
     </row>
-    <row r="446" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="446" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F446" s="3"/>
       <c r="G446" s="8"/>
       <c r="H446" s="7"/>
     </row>
-    <row r="447" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="447" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F447" s="3"/>
       <c r="G447" s="8"/>
       <c r="H447" s="7"/>
     </row>
-    <row r="448" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="448" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F448" s="3"/>
       <c r="G448" s="8"/>
       <c r="H448" s="7"/>
     </row>
-    <row r="449" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="449" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F449" s="3"/>
       <c r="G449" s="8"/>
       <c r="H449" s="7"/>
     </row>
-    <row r="450" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="450" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F450" s="3"/>
       <c r="G450" s="8"/>
       <c r="H450" s="7"/>
     </row>
-    <row r="451" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="451" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F451" s="3"/>
       <c r="G451" s="8"/>
       <c r="H451" s="7"/>
     </row>
-    <row r="452" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="452" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F452" s="3"/>
       <c r="G452" s="8"/>
       <c r="H452" s="7"/>
     </row>
-    <row r="453" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="453" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F453" s="3"/>
       <c r="G453" s="8"/>
       <c r="H453" s="7"/>
     </row>
-    <row r="454" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="454" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F454" s="3"/>
       <c r="G454" s="8"/>
       <c r="H454" s="7"/>
     </row>
-    <row r="455" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="455" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F455" s="3"/>
       <c r="G455" s="8"/>
       <c r="H455" s="7"/>
     </row>
-    <row r="456" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="456" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F456" s="3"/>
       <c r="G456" s="8"/>
       <c r="H456" s="7"/>
     </row>
-    <row r="457" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="457" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F457" s="3"/>
       <c r="G457" s="8"/>
       <c r="H457" s="7"/>
     </row>
-    <row r="458" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="458" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F458" s="3"/>
       <c r="G458" s="8"/>
       <c r="H458" s="7"/>
     </row>
-    <row r="459" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="459" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F459" s="3"/>
       <c r="G459" s="8"/>
       <c r="H459" s="7"/>
     </row>
-    <row r="460" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="460" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F460" s="3"/>
       <c r="G460" s="8"/>
       <c r="H460" s="7"/>
     </row>
-    <row r="461" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="461" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F461" s="3"/>
       <c r="G461" s="8"/>
       <c r="H461" s="7"/>
     </row>
-    <row r="462" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="462" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F462" s="3"/>
       <c r="G462" s="8"/>
       <c r="H462" s="7"/>
     </row>
-    <row r="463" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="463" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F463" s="3"/>
       <c r="G463" s="8"/>
       <c r="H463" s="7"/>
     </row>
-    <row r="464" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="464" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F464" s="3"/>
       <c r="G464" s="8"/>
       <c r="H464" s="7"/>
     </row>
-    <row r="465" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="465" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F465" s="3"/>
       <c r="G465" s="8"/>
       <c r="H465" s="7"/>
     </row>
-    <row r="466" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="466" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F466" s="3"/>
       <c r="G466" s="8"/>
       <c r="H466" s="7"/>
     </row>
-    <row r="467" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="467" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F467" s="3"/>
       <c r="G467" s="8"/>
       <c r="H467" s="7"/>
     </row>
-    <row r="468" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="468" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F468" s="3"/>
       <c r="G468" s="8"/>
       <c r="H468" s="7"/>
     </row>
-    <row r="469" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="469" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F469" s="3"/>
       <c r="G469" s="8"/>
       <c r="H469" s="7"/>
     </row>
-    <row r="470" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="470" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F470" s="3"/>
       <c r="G470" s="8"/>
       <c r="H470" s="7"/>
     </row>
-    <row r="471" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="471" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F471" s="3"/>
       <c r="G471" s="8"/>
       <c r="H471" s="7"/>
     </row>
-    <row r="472" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="472" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F472" s="3"/>
       <c r="G472" s="8"/>
       <c r="H472" s="7"/>
     </row>
-    <row r="473" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="473" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F473" s="3"/>
       <c r="G473" s="8"/>
       <c r="H473" s="7"/>
     </row>
-    <row r="474" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="474" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F474" s="3"/>
       <c r="G474" s="8"/>
       <c r="H474" s="7"/>
     </row>
-    <row r="475" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="475" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F475" s="3"/>
       <c r="G475" s="8"/>
       <c r="H475" s="7"/>
     </row>
-    <row r="476" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="476" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F476" s="3"/>
       <c r="G476" s="8"/>
       <c r="H476" s="7"/>
     </row>
-    <row r="477" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="477" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F477" s="3"/>
       <c r="G477" s="8"/>
       <c r="H477" s="7"/>
     </row>
-    <row r="478" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="478" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F478" s="3"/>
       <c r="G478" s="8"/>
       <c r="H478" s="7"/>
     </row>
-    <row r="479" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="479" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F479" s="3"/>
       <c r="G479" s="8"/>
       <c r="H479" s="7"/>
     </row>
-    <row r="480" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="480" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F480" s="3"/>
       <c r="G480" s="8"/>
       <c r="H480" s="7"/>
     </row>
-    <row r="481" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="481" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F481" s="3"/>
       <c r="G481" s="8"/>
       <c r="H481" s="7"/>
     </row>
-    <row r="482" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="482" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F482" s="3"/>
       <c r="G482" s="8"/>
       <c r="H482" s="7"/>
     </row>
-    <row r="483" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="483" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F483" s="3"/>
       <c r="G483" s="8"/>
       <c r="H483" s="7"/>
     </row>
-    <row r="484" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="484" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F484" s="3"/>
       <c r="G484" s="8"/>
       <c r="H484" s="7"/>
     </row>
-    <row r="485" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="485" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F485" s="3"/>
       <c r="G485" s="8"/>
       <c r="H485" s="7"/>
     </row>
-    <row r="486" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="486" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F486" s="3"/>
       <c r="G486" s="8"/>
       <c r="H486" s="7"/>
     </row>
-    <row r="487" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="487" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F487" s="3"/>
       <c r="G487" s="8"/>
       <c r="H487" s="7"/>
     </row>
-    <row r="488" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="488" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F488" s="3"/>
       <c r="G488" s="8"/>
       <c r="H488" s="7"/>
     </row>
-    <row r="489" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="489" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F489" s="3"/>
       <c r="G489" s="8"/>
       <c r="H489" s="7"/>
     </row>
-    <row r="490" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="490" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F490" s="3"/>
       <c r="G490" s="8"/>
       <c r="H490" s="7"/>
     </row>
-    <row r="491" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="491" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F491" s="3"/>
       <c r="G491" s="8"/>
       <c r="H491" s="7"/>
     </row>
-    <row r="492" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="492" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F492" s="3"/>
       <c r="G492" s="8"/>
       <c r="H492" s="7"/>
     </row>
-    <row r="493" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="493" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F493" s="3"/>
       <c r="G493" s="8"/>
       <c r="H493" s="7"/>
     </row>
-    <row r="494" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="494" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F494" s="3"/>
       <c r="G494" s="8"/>
       <c r="H494" s="7"/>
     </row>
-    <row r="495" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="495" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F495" s="3"/>
       <c r="G495" s="8"/>
       <c r="H495" s="7"/>
     </row>
-    <row r="496" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="496" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F496" s="3"/>
       <c r="G496" s="8"/>
       <c r="H496" s="7"/>
     </row>
-    <row r="497" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="497" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F497" s="3"/>
       <c r="G497" s="8"/>
       <c r="H497" s="7"/>
     </row>
-    <row r="498" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="498" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F498" s="3"/>
       <c r="G498" s="8"/>
       <c r="H498" s="7"/>
     </row>
-    <row r="499" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="499" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F499" s="3"/>
       <c r="G499" s="8"/>
       <c r="H499" s="7"/>
     </row>
-    <row r="500" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="500" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F500" s="3"/>
       <c r="G500" s="8"/>
       <c r="H500" s="7"/>
     </row>
-    <row r="501" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="501" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F501" s="3"/>
       <c r="G501" s="8"/>
       <c r="H501" s="7"/>
     </row>
-    <row r="502" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="502" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F502" s="3"/>
       <c r="G502" s="8"/>
       <c r="H502" s="7"/>
     </row>
-    <row r="503" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="503" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F503" s="3"/>
       <c r="G503" s="8"/>
       <c r="H503" s="7"/>
     </row>
-    <row r="504" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="504" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F504" s="3"/>
       <c r="G504" s="8"/>
       <c r="H504" s="7"/>
     </row>
-    <row r="505" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="505" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F505" s="3"/>
       <c r="G505" s="8"/>
       <c r="H505" s="7"/>
     </row>
-    <row r="506" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="506" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F506" s="3"/>
       <c r="G506" s="8"/>
       <c r="H506" s="7"/>
     </row>
-    <row r="507" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="507" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F507" s="3"/>
       <c r="G507" s="8"/>
       <c r="H507" s="7"/>
     </row>
-    <row r="508" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="508" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F508" s="3"/>
       <c r="G508" s="8"/>
       <c r="H508" s="7"/>
     </row>
-    <row r="509" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="509" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F509" s="3"/>
       <c r="G509" s="8"/>
       <c r="H509" s="7"/>
     </row>
-    <row r="510" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="510" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F510" s="3"/>
       <c r="G510" s="8"/>
       <c r="H510" s="7"/>
     </row>
-    <row r="511" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="511" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F511" s="3"/>
       <c r="G511" s="8"/>
       <c r="H511" s="7"/>
     </row>
-    <row r="512" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="512" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F512" s="3"/>
       <c r="G512" s="8"/>
       <c r="H512" s="7"/>
     </row>
-    <row r="513" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="513" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F513" s="3"/>
       <c r="G513" s="8"/>
       <c r="H513" s="7"/>
     </row>
-    <row r="514" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="514" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F514" s="3"/>
       <c r="G514" s="8"/>
       <c r="H514" s="7"/>
     </row>
-    <row r="515" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="515" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F515" s="3"/>
       <c r="G515" s="8"/>
       <c r="H515" s="7"/>
     </row>
-    <row r="516" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="516" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F516" s="3"/>
       <c r="G516" s="8"/>
       <c r="H516" s="7"/>
     </row>
-    <row r="517" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="517" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F517" s="3"/>
       <c r="G517" s="8"/>
       <c r="H517" s="7"/>
     </row>
-    <row r="518" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="518" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F518" s="3"/>
       <c r="G518" s="8"/>
       <c r="H518" s="7"/>
     </row>
-    <row r="519" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="519" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F519" s="3"/>
       <c r="G519" s="8"/>
       <c r="H519" s="7"/>
     </row>
-    <row r="520" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="520" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F520" s="3"/>
       <c r="G520" s="8"/>
       <c r="H520" s="7"/>
     </row>
-    <row r="521" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="521" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F521" s="3"/>
       <c r="G521" s="8"/>
       <c r="H521" s="7"/>
     </row>
-    <row r="522" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="522" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F522" s="3"/>
       <c r="G522" s="8"/>
       <c r="H522" s="7"/>
     </row>
-    <row r="523" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="523" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F523" s="3"/>
       <c r="G523" s="8"/>
       <c r="H523" s="7"/>
     </row>
-    <row r="524" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="524" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F524" s="3"/>
       <c r="G524" s="8"/>
       <c r="H524" s="7"/>
     </row>
-    <row r="525" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="525" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F525" s="3"/>
       <c r="G525" s="8"/>
       <c r="H525" s="7"/>
     </row>
-    <row r="526" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="526" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F526" s="3"/>
       <c r="G526" s="8"/>
       <c r="H526" s="7"/>
     </row>
-    <row r="527" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="527" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F527" s="3"/>
       <c r="G527" s="8"/>
       <c r="H527" s="7"/>
     </row>
-    <row r="528" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="528" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F528" s="3"/>
       <c r="G528" s="8"/>
       <c r="H528" s="7"/>
     </row>
-    <row r="529" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="529" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F529" s="3"/>
       <c r="G529" s="8"/>
       <c r="H529" s="7"/>
     </row>
-    <row r="530" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="530" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F530" s="3"/>
       <c r="G530" s="8"/>
       <c r="H530" s="7"/>
     </row>
-    <row r="531" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="531" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F531" s="3"/>
       <c r="G531" s="8"/>
       <c r="H531" s="7"/>
     </row>
-    <row r="532" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="532" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F532" s="3"/>
       <c r="G532" s="8"/>
       <c r="H532" s="7"/>
     </row>
-    <row r="533" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="533" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F533" s="3"/>
       <c r="G533" s="8"/>
       <c r="H533" s="7"/>
     </row>
-    <row r="534" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="534" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F534" s="3"/>
       <c r="G534" s="8"/>
       <c r="H534" s="7"/>
     </row>
-    <row r="535" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="535" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F535" s="3"/>
       <c r="G535" s="8"/>
       <c r="H535" s="7"/>
     </row>
-    <row r="536" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="536" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F536" s="3"/>
       <c r="G536" s="8"/>
       <c r="H536" s="7"/>
     </row>
-    <row r="537" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="537" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F537" s="3"/>
       <c r="G537" s="8"/>
       <c r="H537" s="7"/>
     </row>
-    <row r="538" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="538" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F538" s="3"/>
       <c r="G538" s="8"/>
       <c r="H538" s="7"/>
     </row>
-    <row r="539" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="539" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F539" s="3"/>
       <c r="G539" s="8"/>
       <c r="H539" s="7"/>
     </row>
-    <row r="540" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="540" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F540" s="3"/>
       <c r="G540" s="8"/>
       <c r="H540" s="7"/>
     </row>
-    <row r="541" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="541" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F541" s="3"/>
       <c r="G541" s="8"/>
       <c r="H541" s="7"/>
     </row>
-    <row r="542" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="542" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F542" s="3"/>
       <c r="G542" s="8"/>
       <c r="H542" s="7"/>
     </row>
-    <row r="543" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="543" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F543" s="3"/>
       <c r="G543" s="8"/>
       <c r="H543" s="7"/>
     </row>
-    <row r="544" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="544" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F544" s="3"/>
       <c r="G544" s="8"/>
       <c r="H544" s="7"/>
     </row>
-    <row r="545" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="545" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F545" s="3"/>
       <c r="G545" s="8"/>
       <c r="H545" s="7"/>
     </row>
-    <row r="546" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="546" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F546" s="3"/>
       <c r="G546" s="8"/>
       <c r="H546" s="7"/>
     </row>
-    <row r="547" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="547" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F547" s="3"/>
       <c r="G547" s="8"/>
       <c r="H547" s="7"/>
     </row>
-    <row r="548" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="548" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F548" s="3"/>
       <c r="G548" s="8"/>
       <c r="H548" s="7"/>
     </row>
-    <row r="549" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="549" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F549" s="3"/>
       <c r="G549" s="8"/>
       <c r="H549" s="7"/>
     </row>
-    <row r="550" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="550" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F550" s="3"/>
       <c r="G550" s="8"/>
       <c r="H550" s="7"/>
     </row>
-    <row r="551" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="551" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F551" s="3"/>
       <c r="G551" s="8"/>
       <c r="H551" s="7"/>
     </row>
-    <row r="552" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="552" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F552" s="3"/>
       <c r="G552" s="8"/>
       <c r="H552" s="7"/>
     </row>
-    <row r="553" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="553" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F553" s="3"/>
       <c r="G553" s="8"/>
       <c r="H553" s="7"/>
     </row>
-    <row r="554" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="554" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F554" s="3"/>
       <c r="G554" s="8"/>
       <c r="H554" s="7"/>
     </row>
-    <row r="555" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="555" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F555" s="3"/>
       <c r="G555" s="8"/>
       <c r="H555" s="7"/>
     </row>
-    <row r="556" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="556" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F556" s="3"/>
       <c r="G556" s="8"/>
       <c r="H556" s="7"/>
     </row>
-    <row r="557" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="557" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F557" s="3"/>
       <c r="G557" s="8"/>
       <c r="H557" s="7"/>
     </row>
-    <row r="558" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="558" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F558" s="3"/>
       <c r="G558" s="8"/>
       <c r="H558" s="7"/>
     </row>
-    <row r="559" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="559" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F559" s="3"/>
       <c r="G559" s="8"/>
       <c r="H559" s="7"/>
     </row>
-    <row r="560" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="560" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F560" s="3"/>
       <c r="G560" s="8"/>
       <c r="H560" s="7"/>
     </row>
-    <row r="561" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="561" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F561" s="3"/>
       <c r="G561" s="8"/>
       <c r="H561" s="7"/>
     </row>
-    <row r="562" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="562" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F562" s="3"/>
       <c r="G562" s="8"/>
       <c r="H562" s="7"/>
     </row>
-    <row r="563" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="563" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F563" s="3"/>
       <c r="G563" s="8"/>
       <c r="H563" s="7"/>
     </row>
-    <row r="564" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="564" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F564" s="3"/>
       <c r="G564" s="8"/>
       <c r="H564" s="7"/>
     </row>
-    <row r="565" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="565" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F565" s="3"/>
       <c r="G565" s="8"/>
       <c r="H565" s="7"/>
     </row>
-    <row r="566" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="566" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F566" s="3"/>
       <c r="G566" s="8"/>
       <c r="H566" s="7"/>
     </row>
-    <row r="567" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="567" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F567" s="3"/>
       <c r="G567" s="8"/>
       <c r="H567" s="7"/>
     </row>
-    <row r="568" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="568" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F568" s="3"/>
       <c r="G568" s="8"/>
       <c r="H568" s="7"/>
     </row>
-    <row r="569" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="569" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F569" s="3"/>
       <c r="G569" s="8"/>
       <c r="H569" s="7"/>
     </row>
-    <row r="570" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="570" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F570" s="3"/>
       <c r="G570" s="8"/>
       <c r="H570" s="7"/>
     </row>
-    <row r="571" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="571" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F571" s="3"/>
       <c r="G571" s="8"/>
       <c r="H571" s="7"/>
     </row>
-    <row r="572" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="572" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F572" s="3"/>
       <c r="G572" s="8"/>
       <c r="H572" s="7"/>
     </row>
-    <row r="573" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="573" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F573" s="3"/>
       <c r="G573" s="8"/>
       <c r="H573" s="7"/>
     </row>
-    <row r="574" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="574" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F574" s="3"/>
       <c r="G574" s="8"/>
       <c r="H574" s="7"/>
     </row>
-    <row r="575" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="575" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F575" s="3"/>
       <c r="G575" s="8"/>
       <c r="H575" s="7"/>
     </row>
-    <row r="576" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="576" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F576" s="3"/>
       <c r="G576" s="8"/>
       <c r="H576" s="7"/>
     </row>
-    <row r="577" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="577" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F577" s="3"/>
       <c r="G577" s="8"/>
       <c r="H577" s="7"/>
     </row>
-    <row r="578" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="578" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F578" s="3"/>
       <c r="G578" s="8"/>
       <c r="H578" s="7"/>
     </row>
-    <row r="579" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="579" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F579" s="3"/>
       <c r="G579" s="8"/>
       <c r="H579" s="7"/>
     </row>
-    <row r="580" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="580" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F580" s="3"/>
       <c r="G580" s="8"/>
       <c r="H580" s="7"/>
     </row>
-    <row r="581" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="581" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F581" s="3"/>
       <c r="G581" s="8"/>
       <c r="H581" s="7"/>
     </row>
-    <row r="582" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="582" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F582" s="3"/>
       <c r="G582" s="8"/>
       <c r="H582" s="7"/>
     </row>
-    <row r="583" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="583" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F583" s="3"/>
       <c r="G583" s="8"/>
       <c r="H583" s="7"/>
     </row>
-    <row r="584" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="584" spans="6:8" x14ac:dyDescent="0.45">
       <c r="G584" s="8"/>
     </row>
   </sheetData>

--- a/Input/MATSimInputFigure4p3r.xlsx
+++ b/Input/MATSimInputFigure4p3r.xlsx
@@ -1502,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="5">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="J2" s="5">
         <v>1</v>
@@ -1561,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="5">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="J3" s="5">
         <v>1</v>
@@ -1620,7 +1620,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="5">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="J4" s="5">
         <v>1</v>
